--- a/stock_historical_data/1d/CROWN.NS.xlsx
+++ b/stock_historical_data/1d/CROWN.NS.xlsx
@@ -100037,7 +100037,9 @@
       <c r="Q1778" t="n">
         <v>0</v>
       </c>
-      <c r="R1778" t="inlineStr"/>
+      <c r="R1778" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CROWN.NS.xlsx
+++ b/stock_historical_data/1d/CROWN.NS.xlsx
@@ -100373,7 +100373,9 @@
       <c r="Q1784" t="n">
         <v>0</v>
       </c>
-      <c r="R1784" t="inlineStr"/>
+      <c r="R1784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1785">
       <c r="A1785" s="2" t="n">
@@ -100427,7 +100429,9 @@
       <c r="Q1785" t="n">
         <v>0</v>
       </c>
-      <c r="R1785" t="inlineStr"/>
+      <c r="R1785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1786">
       <c r="A1786" s="2" t="n">
@@ -100481,7 +100485,9 @@
       <c r="Q1786" t="n">
         <v>0</v>
       </c>
-      <c r="R1786" t="inlineStr"/>
+      <c r="R1786" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1787">
       <c r="A1787" s="2" t="n">
@@ -100535,7 +100541,9 @@
       <c r="Q1787" t="n">
         <v>0</v>
       </c>
-      <c r="R1787" t="inlineStr"/>
+      <c r="R1787" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1788">
       <c r="A1788" s="2" t="n">
@@ -100589,7 +100597,9 @@
       <c r="Q1788" t="n">
         <v>0</v>
       </c>
-      <c r="R1788" t="inlineStr"/>
+      <c r="R1788" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CROWN.NS.xlsx
+++ b/stock_historical_data/1d/CROWN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1788"/>
+  <dimension ref="A1:R1789"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100601,6 +100601,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>262.4800109863281</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>262.4800109863281</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>257</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>262.4800109863281</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>262.4800109863281</v>
+      </c>
+      <c r="G1789" t="n">
+        <v>28486</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1789" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/CROWN.NS.xlsx
+++ b/stock_historical_data/1d/CROWN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1789"/>
+  <dimension ref="A1:R1790"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100653,7 +100653,63 @@
       <c r="Q1789" t="n">
         <v>0</v>
       </c>
-      <c r="R1789" t="inlineStr"/>
+      <c r="R1789" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>275.6000061035156</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>275.6000061035156</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>270</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>275.6000061035156</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>275.6000061035156</v>
+      </c>
+      <c r="G1790" t="n">
+        <v>60192</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1790" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1790" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CROWN.NS.xlsx
+++ b/stock_historical_data/1d/CROWN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1790"/>
+  <dimension ref="A1:R1797"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100309,7 +100309,7 @@
         <v>23</v>
       </c>
       <c r="O1783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1783" t="n">
         <v>0</v>
@@ -100709,7 +100709,387 @@
       <c r="Q1790" t="n">
         <v>0</v>
       </c>
-      <c r="R1790" t="inlineStr"/>
+      <c r="R1790" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>289.3800048828125</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>289.3800048828125</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>280</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>289.3800048828125</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>289.3800048828125</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>53845</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1791" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1791" t="inlineStr"/>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>298</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>303.8399963378906</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>296</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>303.8399963378906</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>303.8399963378906</v>
+      </c>
+      <c r="G1792" t="n">
+        <v>57204</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1792" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1792" t="inlineStr"/>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>314.7000122070312</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>314.7999877929688</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>288.6400146484375</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>293.3800048828125</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>293.3800048828125</v>
+      </c>
+      <c r="G1793" t="n">
+        <v>43448</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1793" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1793" t="inlineStr"/>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>279</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>287</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>278.7099914550781</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>278.7099914550781</v>
+      </c>
+      <c r="F1794" t="n">
+        <v>278.7099914550781</v>
+      </c>
+      <c r="G1794" t="n">
+        <v>44112</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1794" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1794" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1794" t="inlineStr"/>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>264.7699890136719</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>292.6400146484375</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>264.7699890136719</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>282.760009765625</v>
+      </c>
+      <c r="F1795" t="n">
+        <v>282.760009765625</v>
+      </c>
+      <c r="G1795" t="n">
+        <v>29650</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1795" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1795" t="inlineStr"/>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>282</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>296.8900146484375</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>281</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>296.8099975585938</v>
+      </c>
+      <c r="F1796" t="n">
+        <v>296.8099975585938</v>
+      </c>
+      <c r="G1796" t="n">
+        <v>25069</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1796" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1796" t="inlineStr"/>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>298</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>311</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>298</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>310.0599975585938</v>
+      </c>
+      <c r="F1797" t="n">
+        <v>310.0599975585938</v>
+      </c>
+      <c r="G1797" t="n">
+        <v>36337</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1797" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1797" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CROWN.NS.xlsx
+++ b/stock_historical_data/1d/CROWN.NS.xlsx
@@ -100765,7 +100765,9 @@
       <c r="Q1791" t="n">
         <v>0</v>
       </c>
-      <c r="R1791" t="inlineStr"/>
+      <c r="R1791" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1792">
       <c r="A1792" s="2" t="n">
@@ -100819,7 +100821,9 @@
       <c r="Q1792" t="n">
         <v>0</v>
       </c>
-      <c r="R1792" t="inlineStr"/>
+      <c r="R1792" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1793">
       <c r="A1793" s="2" t="n">
@@ -100873,7 +100877,9 @@
       <c r="Q1793" t="n">
         <v>0</v>
       </c>
-      <c r="R1793" t="inlineStr"/>
+      <c r="R1793" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1794">
       <c r="A1794" s="2" t="n">
@@ -100927,7 +100933,9 @@
       <c r="Q1794" t="n">
         <v>0</v>
       </c>
-      <c r="R1794" t="inlineStr"/>
+      <c r="R1794" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1795">
       <c r="A1795" s="2" t="n">
@@ -100981,7 +100989,9 @@
       <c r="Q1795" t="n">
         <v>0</v>
       </c>
-      <c r="R1795" t="inlineStr"/>
+      <c r="R1795" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1796">
       <c r="A1796" s="2" t="n">
@@ -101035,7 +101045,9 @@
       <c r="Q1796" t="n">
         <v>0</v>
       </c>
-      <c r="R1796" t="inlineStr"/>
+      <c r="R1796" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1797">
       <c r="A1797" s="2" t="n">
@@ -101089,7 +101101,9 @@
       <c r="Q1797" t="n">
         <v>0</v>
       </c>
-      <c r="R1797" t="inlineStr"/>
+      <c r="R1797" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CROWN.NS.xlsx
+++ b/stock_historical_data/1d/CROWN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1797"/>
+  <dimension ref="A1:R1802"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101105,6 +101105,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1798">
+      <c r="A1798" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>310</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>325.0499877929688</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>294.6000061035156</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>304.4500122070312</v>
+      </c>
+      <c r="F1798" t="n">
+        <v>304.4500122070312</v>
+      </c>
+      <c r="G1798" t="n">
+        <v>42224</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1798" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1798" t="inlineStr"/>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>289.25</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>310</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>289.25</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>308.8999938964844</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>308.8999938964844</v>
+      </c>
+      <c r="G1799" t="n">
+        <v>34479</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1799" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1799" t="inlineStr"/>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>324.25</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>324.25</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>298</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>309.1000061035156</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>309.1000061035156</v>
+      </c>
+      <c r="G1800" t="n">
+        <v>23360</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1800" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1800" t="inlineStr"/>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>305</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>309</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>294</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>301.7999877929688</v>
+      </c>
+      <c r="F1801" t="n">
+        <v>301.7999877929688</v>
+      </c>
+      <c r="G1801" t="n">
+        <v>17070</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1801" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1801" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1801" t="inlineStr"/>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>303.75</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>303.75</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>286.75</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>292.7000122070312</v>
+      </c>
+      <c r="F1802" t="n">
+        <v>292.7000122070312</v>
+      </c>
+      <c r="G1802" t="n">
+        <v>17170</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1802" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1802" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1802" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/CROWN.NS.xlsx
+++ b/stock_historical_data/1d/CROWN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1802"/>
+  <dimension ref="A1:R1812"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6291,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="Q104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R104" t="n">
         <v>0</v>
@@ -6347,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="Q105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R105" t="n">
         <v>0</v>
@@ -6403,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R106" t="n">
         <v>0</v>
@@ -97299,25 +97299,25 @@
     </row>
     <row r="1730">
       <c r="A1730" s="2" t="n">
-        <v>45369</v>
+        <v>45366</v>
       </c>
       <c r="B1730" t="n">
-        <v>185.4499969482422</v>
+        <v>181.8500061035156</v>
       </c>
       <c r="C1730" t="n">
-        <v>185.4499969482422</v>
+        <v>181.8500061035156</v>
       </c>
       <c r="D1730" t="n">
-        <v>185.4499969482422</v>
+        <v>181.8500061035156</v>
       </c>
       <c r="E1730" t="n">
-        <v>185.4499969482422</v>
+        <v>181.8500061035156</v>
       </c>
       <c r="F1730" t="n">
-        <v>185.4499969482422</v>
+        <v>181.8500061035156</v>
       </c>
       <c r="G1730" t="n">
-        <v>7312</v>
+        <v>23580</v>
       </c>
       <c r="H1730" t="n">
         <v>2024</v>
@@ -97326,7 +97326,7 @@
         <v>3</v>
       </c>
       <c r="J1730" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K1730" t="n">
         <v>0</v>
@@ -97338,7 +97338,7 @@
         <v>0</v>
       </c>
       <c r="N1730" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O1730" t="n">
         <v>0</v>
@@ -97349,31 +97349,29 @@
       <c r="Q1730" t="n">
         <v>0</v>
       </c>
-      <c r="R1730" t="n">
-        <v>0</v>
-      </c>
+      <c r="R1730" t="inlineStr"/>
     </row>
     <row r="1731">
       <c r="A1731" s="2" t="n">
-        <v>45370</v>
+        <v>45369</v>
       </c>
       <c r="B1731" t="n">
-        <v>189.1499938964844</v>
+        <v>185.4499969482422</v>
       </c>
       <c r="C1731" t="n">
-        <v>189.1499938964844</v>
+        <v>185.4499969482422</v>
       </c>
       <c r="D1731" t="n">
-        <v>189.1499938964844</v>
+        <v>185.4499969482422</v>
       </c>
       <c r="E1731" t="n">
-        <v>189.1499938964844</v>
+        <v>185.4499969482422</v>
       </c>
       <c r="F1731" t="n">
-        <v>189.1499938964844</v>
+        <v>185.4499969482422</v>
       </c>
       <c r="G1731" t="n">
-        <v>3516</v>
+        <v>7312</v>
       </c>
       <c r="H1731" t="n">
         <v>2024</v>
@@ -97382,7 +97380,7 @@
         <v>3</v>
       </c>
       <c r="J1731" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1731" t="n">
         <v>0</v>
@@ -97411,25 +97409,25 @@
     </row>
     <row r="1732">
       <c r="A1732" s="2" t="n">
-        <v>45371</v>
+        <v>45370</v>
       </c>
       <c r="B1732" t="n">
-        <v>192.8999938964844</v>
+        <v>189.1499938964844</v>
       </c>
       <c r="C1732" t="n">
-        <v>192.8999938964844</v>
+        <v>189.1499938964844</v>
       </c>
       <c r="D1732" t="n">
         <v>189.1499938964844</v>
       </c>
       <c r="E1732" t="n">
-        <v>192.8999938964844</v>
+        <v>189.1499938964844</v>
       </c>
       <c r="F1732" t="n">
-        <v>192.8999938964844</v>
+        <v>189.1499938964844</v>
       </c>
       <c r="G1732" t="n">
-        <v>19395</v>
+        <v>3516</v>
       </c>
       <c r="H1732" t="n">
         <v>2024</v>
@@ -97438,7 +97436,7 @@
         <v>3</v>
       </c>
       <c r="J1732" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1732" t="n">
         <v>0</v>
@@ -97467,25 +97465,25 @@
     </row>
     <row r="1733">
       <c r="A1733" s="2" t="n">
-        <v>45372</v>
+        <v>45371</v>
       </c>
       <c r="B1733" t="n">
-        <v>196.75</v>
+        <v>192.8999938964844</v>
       </c>
       <c r="C1733" t="n">
-        <v>196.75</v>
+        <v>192.8999938964844</v>
       </c>
       <c r="D1733" t="n">
-        <v>189.0500030517578</v>
+        <v>189.1499938964844</v>
       </c>
       <c r="E1733" t="n">
-        <v>196.75</v>
+        <v>192.8999938964844</v>
       </c>
       <c r="F1733" t="n">
-        <v>196.75</v>
+        <v>192.8999938964844</v>
       </c>
       <c r="G1733" t="n">
-        <v>13731</v>
+        <v>19395</v>
       </c>
       <c r="H1733" t="n">
         <v>2024</v>
@@ -97494,7 +97492,7 @@
         <v>3</v>
       </c>
       <c r="J1733" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1733" t="n">
         <v>0</v>
@@ -97523,25 +97521,25 @@
     </row>
     <row r="1734">
       <c r="A1734" s="2" t="n">
-        <v>45373</v>
+        <v>45372</v>
       </c>
       <c r="B1734" t="n">
-        <v>200.6499938964844</v>
+        <v>196.75</v>
       </c>
       <c r="C1734" t="n">
-        <v>200.6499938964844</v>
+        <v>196.75</v>
       </c>
       <c r="D1734" t="n">
-        <v>200.6499938964844</v>
+        <v>189.0500030517578</v>
       </c>
       <c r="E1734" t="n">
-        <v>200.6499938964844</v>
+        <v>196.75</v>
       </c>
       <c r="F1734" t="n">
-        <v>200.6499938964844</v>
+        <v>196.75</v>
       </c>
       <c r="G1734" t="n">
-        <v>8865</v>
+        <v>13731</v>
       </c>
       <c r="H1734" t="n">
         <v>2024</v>
@@ -97550,7 +97548,7 @@
         <v>3</v>
       </c>
       <c r="J1734" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1734" t="n">
         <v>0</v>
@@ -97579,25 +97577,25 @@
     </row>
     <row r="1735">
       <c r="A1735" s="2" t="n">
-        <v>45377</v>
+        <v>45373</v>
       </c>
       <c r="B1735" t="n">
-        <v>204.6499938964844</v>
+        <v>200.6499938964844</v>
       </c>
       <c r="C1735" t="n">
-        <v>204.6499938964844</v>
+        <v>200.6499938964844</v>
       </c>
       <c r="D1735" t="n">
-        <v>204.6499938964844</v>
+        <v>200.6499938964844</v>
       </c>
       <c r="E1735" t="n">
-        <v>204.6499938964844</v>
+        <v>200.6499938964844</v>
       </c>
       <c r="F1735" t="n">
-        <v>204.6499938964844</v>
+        <v>200.6499938964844</v>
       </c>
       <c r="G1735" t="n">
-        <v>755</v>
+        <v>8865</v>
       </c>
       <c r="H1735" t="n">
         <v>2024</v>
@@ -97606,7 +97604,7 @@
         <v>3</v>
       </c>
       <c r="J1735" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K1735" t="n">
         <v>0</v>
@@ -97618,7 +97616,7 @@
         <v>0</v>
       </c>
       <c r="N1735" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O1735" t="n">
         <v>0</v>
@@ -97635,25 +97633,25 @@
     </row>
     <row r="1736">
       <c r="A1736" s="2" t="n">
-        <v>45378</v>
+        <v>45377</v>
       </c>
       <c r="B1736" t="n">
-        <v>208.6999969482422</v>
+        <v>204.6499938964844</v>
       </c>
       <c r="C1736" t="n">
-        <v>208.6999969482422</v>
+        <v>204.6499938964844</v>
       </c>
       <c r="D1736" t="n">
-        <v>208.6999969482422</v>
+        <v>204.6499938964844</v>
       </c>
       <c r="E1736" t="n">
-        <v>208.6999969482422</v>
+        <v>204.6499938964844</v>
       </c>
       <c r="F1736" t="n">
-        <v>208.6999969482422</v>
+        <v>204.6499938964844</v>
       </c>
       <c r="G1736" t="n">
-        <v>281</v>
+        <v>755</v>
       </c>
       <c r="H1736" t="n">
         <v>2024</v>
@@ -97662,7 +97660,7 @@
         <v>3</v>
       </c>
       <c r="J1736" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K1736" t="n">
         <v>0</v>
@@ -97691,25 +97689,25 @@
     </row>
     <row r="1737">
       <c r="A1737" s="2" t="n">
-        <v>45379</v>
+        <v>45378</v>
       </c>
       <c r="B1737" t="n">
-        <v>212.8500061035156</v>
+        <v>208.6999969482422</v>
       </c>
       <c r="C1737" t="n">
-        <v>212.8500061035156</v>
+        <v>208.6999969482422</v>
       </c>
       <c r="D1737" t="n">
-        <v>212.8500061035156</v>
+        <v>208.6999969482422</v>
       </c>
       <c r="E1737" t="n">
-        <v>212.8500061035156</v>
+        <v>208.6999969482422</v>
       </c>
       <c r="F1737" t="n">
-        <v>212.8500061035156</v>
+        <v>208.6999969482422</v>
       </c>
       <c r="G1737" t="n">
-        <v>22812</v>
+        <v>281</v>
       </c>
       <c r="H1737" t="n">
         <v>2024</v>
@@ -97718,7 +97716,7 @@
         <v>3</v>
       </c>
       <c r="J1737" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K1737" t="n">
         <v>0</v>
@@ -97747,34 +97745,34 @@
     </row>
     <row r="1738">
       <c r="A1738" s="2" t="n">
-        <v>45383</v>
+        <v>45379</v>
       </c>
       <c r="B1738" t="n">
-        <v>217.1000061035156</v>
+        <v>212.8500061035156</v>
       </c>
       <c r="C1738" t="n">
-        <v>217.1000061035156</v>
+        <v>212.8500061035156</v>
       </c>
       <c r="D1738" t="n">
-        <v>217</v>
+        <v>212.8500061035156</v>
       </c>
       <c r="E1738" t="n">
-        <v>217.1000061035156</v>
+        <v>212.8500061035156</v>
       </c>
       <c r="F1738" t="n">
-        <v>217.1000061035156</v>
+        <v>212.8500061035156</v>
       </c>
       <c r="G1738" t="n">
-        <v>36567</v>
+        <v>22812</v>
       </c>
       <c r="H1738" t="n">
         <v>2024</v>
       </c>
       <c r="I1738" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J1738" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="K1738" t="n">
         <v>0</v>
@@ -97786,7 +97784,7 @@
         <v>0</v>
       </c>
       <c r="N1738" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O1738" t="n">
         <v>0</v>
@@ -97803,25 +97801,25 @@
     </row>
     <row r="1739">
       <c r="A1739" s="2" t="n">
-        <v>45384</v>
+        <v>45383</v>
       </c>
       <c r="B1739" t="n">
-        <v>219</v>
+        <v>217.1000061035156</v>
       </c>
       <c r="C1739" t="n">
-        <v>220.75</v>
+        <v>217.1000061035156</v>
       </c>
       <c r="D1739" t="n">
+        <v>217</v>
+      </c>
+      <c r="E1739" t="n">
         <v>217.1000061035156</v>
       </c>
-      <c r="E1739" t="n">
-        <v>219</v>
-      </c>
       <c r="F1739" t="n">
-        <v>219</v>
+        <v>217.1000061035156</v>
       </c>
       <c r="G1739" t="n">
-        <v>17328</v>
+        <v>36567</v>
       </c>
       <c r="H1739" t="n">
         <v>2024</v>
@@ -97830,7 +97828,7 @@
         <v>4</v>
       </c>
       <c r="J1739" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K1739" t="n">
         <v>0</v>
@@ -97859,25 +97857,25 @@
     </row>
     <row r="1740">
       <c r="A1740" s="2" t="n">
-        <v>45385</v>
+        <v>45384</v>
       </c>
       <c r="B1740" t="n">
-        <v>214.6499938964844</v>
+        <v>219</v>
       </c>
       <c r="C1740" t="n">
-        <v>218.8999938964844</v>
+        <v>220.75</v>
       </c>
       <c r="D1740" t="n">
-        <v>214.6499938964844</v>
+        <v>217.1000061035156</v>
       </c>
       <c r="E1740" t="n">
-        <v>214.6499938964844</v>
+        <v>219</v>
       </c>
       <c r="F1740" t="n">
-        <v>214.6499938964844</v>
+        <v>219</v>
       </c>
       <c r="G1740" t="n">
-        <v>12085</v>
+        <v>17328</v>
       </c>
       <c r="H1740" t="n">
         <v>2024</v>
@@ -97886,7 +97884,7 @@
         <v>4</v>
       </c>
       <c r="J1740" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K1740" t="n">
         <v>0</v>
@@ -97915,25 +97913,25 @@
     </row>
     <row r="1741">
       <c r="A1741" s="2" t="n">
-        <v>45386</v>
+        <v>45385</v>
       </c>
       <c r="B1741" t="n">
-        <v>210.3500061035156</v>
+        <v>214.6499938964844</v>
       </c>
       <c r="C1741" t="n">
-        <v>210.3500061035156</v>
+        <v>218.8999938964844</v>
       </c>
       <c r="D1741" t="n">
-        <v>210.3500061035156</v>
+        <v>214.6499938964844</v>
       </c>
       <c r="E1741" t="n">
-        <v>210.3500061035156</v>
+        <v>214.6499938964844</v>
       </c>
       <c r="F1741" t="n">
-        <v>210.3500061035156</v>
+        <v>214.6499938964844</v>
       </c>
       <c r="G1741" t="n">
-        <v>4731</v>
+        <v>12085</v>
       </c>
       <c r="H1741" t="n">
         <v>2024</v>
@@ -97942,7 +97940,7 @@
         <v>4</v>
       </c>
       <c r="J1741" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1741" t="n">
         <v>0</v>
@@ -97971,25 +97969,25 @@
     </row>
     <row r="1742">
       <c r="A1742" s="2" t="n">
-        <v>45387</v>
+        <v>45386</v>
       </c>
       <c r="B1742" t="n">
-        <v>206.1499938964844</v>
+        <v>210.3500061035156</v>
       </c>
       <c r="C1742" t="n">
-        <v>206.1499938964844</v>
+        <v>210.3500061035156</v>
       </c>
       <c r="D1742" t="n">
-        <v>206.1499938964844</v>
+        <v>210.3500061035156</v>
       </c>
       <c r="E1742" t="n">
-        <v>206.1499938964844</v>
+        <v>210.3500061035156</v>
       </c>
       <c r="F1742" t="n">
-        <v>206.1499938964844</v>
+        <v>210.3500061035156</v>
       </c>
       <c r="G1742" t="n">
-        <v>17302</v>
+        <v>4731</v>
       </c>
       <c r="H1742" t="n">
         <v>2024</v>
@@ -97998,7 +97996,7 @@
         <v>4</v>
       </c>
       <c r="J1742" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1742" t="n">
         <v>0</v>
@@ -98027,25 +98025,25 @@
     </row>
     <row r="1743">
       <c r="A1743" s="2" t="n">
-        <v>45390</v>
+        <v>45387</v>
       </c>
       <c r="B1743" t="n">
-        <v>209.5</v>
+        <v>206.1499938964844</v>
       </c>
       <c r="C1743" t="n">
-        <v>210.25</v>
+        <v>206.1499938964844</v>
       </c>
       <c r="D1743" t="n">
-        <v>206</v>
+        <v>206.1499938964844</v>
       </c>
       <c r="E1743" t="n">
-        <v>209.5</v>
+        <v>206.1499938964844</v>
       </c>
       <c r="F1743" t="n">
-        <v>209.5</v>
+        <v>206.1499938964844</v>
       </c>
       <c r="G1743" t="n">
-        <v>22973</v>
+        <v>17302</v>
       </c>
       <c r="H1743" t="n">
         <v>2024</v>
@@ -98054,7 +98052,7 @@
         <v>4</v>
       </c>
       <c r="J1743" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K1743" t="n">
         <v>0</v>
@@ -98066,7 +98064,7 @@
         <v>0</v>
       </c>
       <c r="N1743" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O1743" t="n">
         <v>0</v>
@@ -98083,25 +98081,25 @@
     </row>
     <row r="1744">
       <c r="A1744" s="2" t="n">
-        <v>45391</v>
+        <v>45390</v>
       </c>
       <c r="B1744" t="n">
-        <v>213</v>
+        <v>209.5</v>
       </c>
       <c r="C1744" t="n">
-        <v>213.6499938964844</v>
+        <v>210.25</v>
       </c>
       <c r="D1744" t="n">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E1744" t="n">
-        <v>213</v>
+        <v>209.5</v>
       </c>
       <c r="F1744" t="n">
-        <v>213</v>
+        <v>209.5</v>
       </c>
       <c r="G1744" t="n">
-        <v>18096</v>
+        <v>22973</v>
       </c>
       <c r="H1744" t="n">
         <v>2024</v>
@@ -98110,7 +98108,7 @@
         <v>4</v>
       </c>
       <c r="J1744" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K1744" t="n">
         <v>0</v>
@@ -98139,25 +98137,25 @@
     </row>
     <row r="1745">
       <c r="A1745" s="2" t="n">
-        <v>45392</v>
+        <v>45391</v>
       </c>
       <c r="B1745" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C1745" t="n">
-        <v>216</v>
+        <v>213.6499938964844</v>
       </c>
       <c r="D1745" t="n">
-        <v>208.75</v>
+        <v>213</v>
       </c>
       <c r="E1745" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F1745" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G1745" t="n">
-        <v>12108</v>
+        <v>18096</v>
       </c>
       <c r="H1745" t="n">
         <v>2024</v>
@@ -98166,7 +98164,7 @@
         <v>4</v>
       </c>
       <c r="J1745" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1745" t="n">
         <v>0</v>
@@ -98195,25 +98193,25 @@
     </row>
     <row r="1746">
       <c r="A1746" s="2" t="n">
-        <v>45394</v>
+        <v>45392</v>
       </c>
       <c r="B1746" t="n">
-        <v>215.8999938964844</v>
+        <v>216</v>
       </c>
       <c r="C1746" t="n">
         <v>216</v>
       </c>
       <c r="D1746" t="n">
-        <v>215.8999938964844</v>
+        <v>208.75</v>
       </c>
       <c r="E1746" t="n">
-        <v>215.8999938964844</v>
+        <v>216</v>
       </c>
       <c r="F1746" t="n">
-        <v>215.8999938964844</v>
+        <v>216</v>
       </c>
       <c r="G1746" t="n">
-        <v>5534</v>
+        <v>12108</v>
       </c>
       <c r="H1746" t="n">
         <v>2024</v>
@@ -98222,7 +98220,7 @@
         <v>4</v>
       </c>
       <c r="J1746" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K1746" t="n">
         <v>0</v>
@@ -98251,25 +98249,25 @@
     </row>
     <row r="1747">
       <c r="A1747" s="2" t="n">
-        <v>45397</v>
+        <v>45394</v>
       </c>
       <c r="B1747" t="n">
-        <v>220.1999969482422</v>
+        <v>215.8999938964844</v>
       </c>
       <c r="C1747" t="n">
-        <v>220.1999969482422</v>
+        <v>216</v>
       </c>
       <c r="D1747" t="n">
-        <v>211.6000061035156</v>
+        <v>215.8999938964844</v>
       </c>
       <c r="E1747" t="n">
-        <v>220.1999969482422</v>
+        <v>215.8999938964844</v>
       </c>
       <c r="F1747" t="n">
-        <v>220.1999969482422</v>
+        <v>215.8999938964844</v>
       </c>
       <c r="G1747" t="n">
-        <v>7676</v>
+        <v>5534</v>
       </c>
       <c r="H1747" t="n">
         <v>2024</v>
@@ -98278,19 +98276,19 @@
         <v>4</v>
       </c>
       <c r="J1747" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1747" t="n">
         <v>15</v>
-      </c>
-      <c r="K1747" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1747" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1747" t="n">
-        <v>0</v>
-      </c>
-      <c r="N1747" t="n">
-        <v>16</v>
       </c>
       <c r="O1747" t="n">
         <v>0</v>
@@ -98307,25 +98305,25 @@
     </row>
     <row r="1748">
       <c r="A1748" s="2" t="n">
-        <v>45398</v>
+        <v>45397</v>
       </c>
       <c r="B1748" t="n">
-        <v>219.4499969482422</v>
+        <v>220.1999969482422</v>
       </c>
       <c r="C1748" t="n">
-        <v>223</v>
+        <v>220.1999969482422</v>
       </c>
       <c r="D1748" t="n">
-        <v>219.4499969482422</v>
+        <v>211.6000061035156</v>
       </c>
       <c r="E1748" t="n">
-        <v>219.4499969482422</v>
+        <v>220.1999969482422</v>
       </c>
       <c r="F1748" t="n">
-        <v>219.4499969482422</v>
+        <v>220.1999969482422</v>
       </c>
       <c r="G1748" t="n">
-        <v>6782</v>
+        <v>7676</v>
       </c>
       <c r="H1748" t="n">
         <v>2024</v>
@@ -98334,7 +98332,7 @@
         <v>4</v>
       </c>
       <c r="J1748" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1748" t="n">
         <v>0</v>
@@ -98363,25 +98361,25 @@
     </row>
     <row r="1749">
       <c r="A1749" s="2" t="n">
-        <v>45400</v>
+        <v>45398</v>
       </c>
       <c r="B1749" t="n">
-        <v>215.8000030517578</v>
+        <v>219.4499969482422</v>
       </c>
       <c r="C1749" t="n">
+        <v>223</v>
+      </c>
+      <c r="D1749" t="n">
         <v>219.4499969482422</v>
       </c>
-      <c r="D1749" t="n">
-        <v>215.8000030517578</v>
-      </c>
       <c r="E1749" t="n">
-        <v>215.8000030517578</v>
+        <v>219.4499969482422</v>
       </c>
       <c r="F1749" t="n">
-        <v>215.8000030517578</v>
+        <v>219.4499969482422</v>
       </c>
       <c r="G1749" t="n">
-        <v>5781</v>
+        <v>6782</v>
       </c>
       <c r="H1749" t="n">
         <v>2024</v>
@@ -98390,7 +98388,7 @@
         <v>4</v>
       </c>
       <c r="J1749" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K1749" t="n">
         <v>0</v>
@@ -98419,25 +98417,25 @@
     </row>
     <row r="1750">
       <c r="A1750" s="2" t="n">
-        <v>45401</v>
+        <v>45400</v>
       </c>
       <c r="B1750" t="n">
-        <v>217</v>
+        <v>215.8000030517578</v>
       </c>
       <c r="C1750" t="n">
-        <v>219.8500061035156</v>
+        <v>219.4499969482422</v>
       </c>
       <c r="D1750" t="n">
-        <v>213.8999938964844</v>
+        <v>215.8000030517578</v>
       </c>
       <c r="E1750" t="n">
-        <v>217</v>
+        <v>215.8000030517578</v>
       </c>
       <c r="F1750" t="n">
-        <v>217</v>
+        <v>215.8000030517578</v>
       </c>
       <c r="G1750" t="n">
-        <v>7216</v>
+        <v>5781</v>
       </c>
       <c r="H1750" t="n">
         <v>2024</v>
@@ -98446,7 +98444,7 @@
         <v>4</v>
       </c>
       <c r="J1750" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1750" t="n">
         <v>0</v>
@@ -98475,25 +98473,25 @@
     </row>
     <row r="1751">
       <c r="A1751" s="2" t="n">
-        <v>45404</v>
+        <v>45401</v>
       </c>
       <c r="B1751" t="n">
-        <v>221.3000030517578</v>
+        <v>217</v>
       </c>
       <c r="C1751" t="n">
-        <v>221.3000030517578</v>
+        <v>219.8500061035156</v>
       </c>
       <c r="D1751" t="n">
-        <v>221.3000030517578</v>
+        <v>213.8999938964844</v>
       </c>
       <c r="E1751" t="n">
-        <v>221.3000030517578</v>
+        <v>217</v>
       </c>
       <c r="F1751" t="n">
-        <v>221.3000030517578</v>
+        <v>217</v>
       </c>
       <c r="G1751" t="n">
-        <v>9882</v>
+        <v>7216</v>
       </c>
       <c r="H1751" t="n">
         <v>2024</v>
@@ -98502,7 +98500,7 @@
         <v>4</v>
       </c>
       <c r="J1751" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K1751" t="n">
         <v>0</v>
@@ -98514,7 +98512,7 @@
         <v>0</v>
       </c>
       <c r="N1751" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O1751" t="n">
         <v>0</v>
@@ -98531,25 +98529,25 @@
     </row>
     <row r="1752">
       <c r="A1752" s="2" t="n">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="B1752" t="n">
-        <v>225.5</v>
+        <v>221.3000030517578</v>
       </c>
       <c r="C1752" t="n">
-        <v>225.6999969482422</v>
+        <v>221.3000030517578</v>
       </c>
       <c r="D1752" t="n">
-        <v>225.5</v>
+        <v>221.3000030517578</v>
       </c>
       <c r="E1752" t="n">
-        <v>225.5</v>
+        <v>221.3000030517578</v>
       </c>
       <c r="F1752" t="n">
-        <v>225.5</v>
+        <v>221.3000030517578</v>
       </c>
       <c r="G1752" t="n">
-        <v>11017</v>
+        <v>9882</v>
       </c>
       <c r="H1752" t="n">
         <v>2024</v>
@@ -98558,7 +98556,7 @@
         <v>4</v>
       </c>
       <c r="J1752" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K1752" t="n">
         <v>0</v>
@@ -98587,25 +98585,25 @@
     </row>
     <row r="1753">
       <c r="A1753" s="2" t="n">
-        <v>45406</v>
+        <v>45405</v>
       </c>
       <c r="B1753" t="n">
-        <v>221</v>
+        <v>225.5</v>
       </c>
       <c r="C1753" t="n">
-        <v>221</v>
+        <v>225.6999969482422</v>
       </c>
       <c r="D1753" t="n">
-        <v>221</v>
+        <v>225.5</v>
       </c>
       <c r="E1753" t="n">
-        <v>221</v>
+        <v>225.5</v>
       </c>
       <c r="F1753" t="n">
-        <v>221</v>
+        <v>225.5</v>
       </c>
       <c r="G1753" t="n">
-        <v>4279</v>
+        <v>11017</v>
       </c>
       <c r="H1753" t="n">
         <v>2024</v>
@@ -98614,7 +98612,7 @@
         <v>4</v>
       </c>
       <c r="J1753" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K1753" t="n">
         <v>0</v>
@@ -98643,25 +98641,25 @@
     </row>
     <row r="1754">
       <c r="A1754" s="2" t="n">
-        <v>45407</v>
+        <v>45406</v>
       </c>
       <c r="B1754" t="n">
-        <v>216.6000061035156</v>
+        <v>221</v>
       </c>
       <c r="C1754" t="n">
-        <v>216.6000061035156</v>
+        <v>221</v>
       </c>
       <c r="D1754" t="n">
-        <v>216.6000061035156</v>
+        <v>221</v>
       </c>
       <c r="E1754" t="n">
-        <v>216.6000061035156</v>
+        <v>221</v>
       </c>
       <c r="F1754" t="n">
-        <v>216.6000061035156</v>
+        <v>221</v>
       </c>
       <c r="G1754" t="n">
-        <v>6843</v>
+        <v>4279</v>
       </c>
       <c r="H1754" t="n">
         <v>2024</v>
@@ -98670,7 +98668,7 @@
         <v>4</v>
       </c>
       <c r="J1754" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K1754" t="n">
         <v>0</v>
@@ -98699,25 +98697,25 @@
     </row>
     <row r="1755">
       <c r="A1755" s="2" t="n">
-        <v>45408</v>
+        <v>45407</v>
       </c>
       <c r="B1755" t="n">
-        <v>212.3000030517578</v>
+        <v>216.6000061035156</v>
       </c>
       <c r="C1755" t="n">
-        <v>212.3000030517578</v>
+        <v>216.6000061035156</v>
       </c>
       <c r="D1755" t="n">
-        <v>212.3000030517578</v>
+        <v>216.6000061035156</v>
       </c>
       <c r="E1755" t="n">
-        <v>212.3000030517578</v>
+        <v>216.6000061035156</v>
       </c>
       <c r="F1755" t="n">
-        <v>212.3000030517578</v>
+        <v>216.6000061035156</v>
       </c>
       <c r="G1755" t="n">
-        <v>8418</v>
+        <v>6843</v>
       </c>
       <c r="H1755" t="n">
         <v>2024</v>
@@ -98726,7 +98724,7 @@
         <v>4</v>
       </c>
       <c r="J1755" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K1755" t="n">
         <v>0</v>
@@ -98755,25 +98753,25 @@
     </row>
     <row r="1756">
       <c r="A1756" s="2" t="n">
-        <v>45411</v>
+        <v>45408</v>
       </c>
       <c r="B1756" t="n">
-        <v>222.8999938964844</v>
+        <v>212.3000030517578</v>
       </c>
       <c r="C1756" t="n">
-        <v>222.8999938964844</v>
+        <v>212.3000030517578</v>
       </c>
       <c r="D1756" t="n">
-        <v>203</v>
+        <v>212.3000030517578</v>
       </c>
       <c r="E1756" t="n">
-        <v>217</v>
+        <v>212.3000030517578</v>
       </c>
       <c r="F1756" t="n">
-        <v>217</v>
+        <v>212.3000030517578</v>
       </c>
       <c r="G1756" t="n">
-        <v>36460</v>
+        <v>8418</v>
       </c>
       <c r="H1756" t="n">
         <v>2024</v>
@@ -98782,7 +98780,7 @@
         <v>4</v>
       </c>
       <c r="J1756" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K1756" t="n">
         <v>0</v>
@@ -98794,10 +98792,10 @@
         <v>0</v>
       </c>
       <c r="N1756" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O1756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1756" t="n">
         <v>0</v>
@@ -98811,25 +98809,25 @@
     </row>
     <row r="1757">
       <c r="A1757" s="2" t="n">
-        <v>45412</v>
+        <v>45411</v>
       </c>
       <c r="B1757" t="n">
-        <v>215.9499969482422</v>
+        <v>222.8999938964844</v>
       </c>
       <c r="C1757" t="n">
-        <v>225.6499938964844</v>
+        <v>222.8999938964844</v>
       </c>
       <c r="D1757" t="n">
-        <v>207.1499938964844</v>
+        <v>203</v>
       </c>
       <c r="E1757" t="n">
-        <v>211.6999969482422</v>
+        <v>217</v>
       </c>
       <c r="F1757" t="n">
-        <v>211.6999969482422</v>
+        <v>217</v>
       </c>
       <c r="G1757" t="n">
-        <v>11235</v>
+        <v>36460</v>
       </c>
       <c r="H1757" t="n">
         <v>2024</v>
@@ -98838,7 +98836,7 @@
         <v>4</v>
       </c>
       <c r="J1757" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1757" t="n">
         <v>0</v>
@@ -98853,7 +98851,7 @@
         <v>18</v>
       </c>
       <c r="O1757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1757" t="n">
         <v>0</v>
@@ -98867,34 +98865,34 @@
     </row>
     <row r="1758">
       <c r="A1758" s="2" t="n">
-        <v>45414</v>
+        <v>45412</v>
       </c>
       <c r="B1758" t="n">
-        <v>213.9499969482422</v>
+        <v>215.9499969482422</v>
       </c>
       <c r="C1758" t="n">
-        <v>213.9499969482422</v>
+        <v>225.6499938964844</v>
       </c>
       <c r="D1758" t="n">
-        <v>204</v>
+        <v>207.1499938964844</v>
       </c>
       <c r="E1758" t="n">
-        <v>205.0500030517578</v>
+        <v>211.6999969482422</v>
       </c>
       <c r="F1758" t="n">
-        <v>205.0500030517578</v>
+        <v>211.6999969482422</v>
       </c>
       <c r="G1758" t="n">
-        <v>15342</v>
+        <v>11235</v>
       </c>
       <c r="H1758" t="n">
         <v>2024</v>
       </c>
       <c r="I1758" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J1758" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="K1758" t="n">
         <v>0</v>
@@ -98923,25 +98921,25 @@
     </row>
     <row r="1759">
       <c r="A1759" s="2" t="n">
-        <v>45415</v>
+        <v>45414</v>
       </c>
       <c r="B1759" t="n">
-        <v>213.75</v>
+        <v>213.9499969482422</v>
       </c>
       <c r="C1759" t="n">
-        <v>215.3000030517578</v>
+        <v>213.9499969482422</v>
       </c>
       <c r="D1759" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E1759" t="n">
-        <v>215.3000030517578</v>
+        <v>205.0500030517578</v>
       </c>
       <c r="F1759" t="n">
-        <v>215.3000030517578</v>
+        <v>205.0500030517578</v>
       </c>
       <c r="G1759" t="n">
-        <v>30235</v>
+        <v>15342</v>
       </c>
       <c r="H1759" t="n">
         <v>2024</v>
@@ -98950,7 +98948,7 @@
         <v>5</v>
       </c>
       <c r="J1759" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K1759" t="n">
         <v>0</v>
@@ -98979,25 +98977,25 @@
     </row>
     <row r="1760">
       <c r="A1760" s="2" t="n">
-        <v>45418</v>
+        <v>45415</v>
       </c>
       <c r="B1760" t="n">
-        <v>225</v>
+        <v>213.75</v>
       </c>
       <c r="C1760" t="n">
-        <v>226.0500030517578</v>
+        <v>215.3000030517578</v>
       </c>
       <c r="D1760" t="n">
-        <v>220.1999969482422</v>
+        <v>210</v>
       </c>
       <c r="E1760" t="n">
-        <v>226.0500030517578</v>
+        <v>215.3000030517578</v>
       </c>
       <c r="F1760" t="n">
-        <v>226.0500030517578</v>
+        <v>215.3000030517578</v>
       </c>
       <c r="G1760" t="n">
-        <v>8244</v>
+        <v>30235</v>
       </c>
       <c r="H1760" t="n">
         <v>2024</v>
@@ -99006,7 +99004,7 @@
         <v>5</v>
       </c>
       <c r="J1760" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K1760" t="n">
         <v>0</v>
@@ -99018,7 +99016,7 @@
         <v>0</v>
       </c>
       <c r="N1760" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O1760" t="n">
         <v>0</v>
@@ -99035,25 +99033,25 @@
     </row>
     <row r="1761">
       <c r="A1761" s="2" t="n">
-        <v>45419</v>
+        <v>45418</v>
       </c>
       <c r="B1761" t="n">
-        <v>237.3500061035156</v>
+        <v>225</v>
       </c>
       <c r="C1761" t="n">
-        <v>237.3500061035156</v>
+        <v>226.0500030517578</v>
       </c>
       <c r="D1761" t="n">
-        <v>237.3500061035156</v>
+        <v>220.1999969482422</v>
       </c>
       <c r="E1761" t="n">
-        <v>237.3500061035156</v>
+        <v>226.0500030517578</v>
       </c>
       <c r="F1761" t="n">
-        <v>237.3500061035156</v>
+        <v>226.0500030517578</v>
       </c>
       <c r="G1761" t="n">
-        <v>6093</v>
+        <v>8244</v>
       </c>
       <c r="H1761" t="n">
         <v>2024</v>
@@ -99062,7 +99060,7 @@
         <v>5</v>
       </c>
       <c r="J1761" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K1761" t="n">
         <v>0</v>
@@ -99091,25 +99089,25 @@
     </row>
     <row r="1762">
       <c r="A1762" s="2" t="n">
-        <v>45420</v>
+        <v>45419</v>
       </c>
       <c r="B1762" t="n">
-        <v>249.1999969482422</v>
+        <v>237.3500061035156</v>
       </c>
       <c r="C1762" t="n">
-        <v>249.1999969482422</v>
+        <v>237.3500061035156</v>
       </c>
       <c r="D1762" t="n">
-        <v>249.1999969482422</v>
+        <v>237.3500061035156</v>
       </c>
       <c r="E1762" t="n">
-        <v>249.1999969482422</v>
+        <v>237.3500061035156</v>
       </c>
       <c r="F1762" t="n">
-        <v>249.1999969482422</v>
+        <v>237.3500061035156</v>
       </c>
       <c r="G1762" t="n">
-        <v>23595</v>
+        <v>6093</v>
       </c>
       <c r="H1762" t="n">
         <v>2024</v>
@@ -99118,7 +99116,7 @@
         <v>5</v>
       </c>
       <c r="J1762" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K1762" t="n">
         <v>0</v>
@@ -99147,25 +99145,25 @@
     </row>
     <row r="1763">
       <c r="A1763" s="2" t="n">
-        <v>45421</v>
+        <v>45420</v>
       </c>
       <c r="B1763" t="n">
-        <v>261.6499938964844</v>
+        <v>249.1999969482422</v>
       </c>
       <c r="C1763" t="n">
-        <v>261.6499938964844</v>
+        <v>249.1999969482422</v>
       </c>
       <c r="D1763" t="n">
-        <v>236.75</v>
+        <v>249.1999969482422</v>
       </c>
       <c r="E1763" t="n">
-        <v>236.75</v>
+        <v>249.1999969482422</v>
       </c>
       <c r="F1763" t="n">
-        <v>236.75</v>
+        <v>249.1999969482422</v>
       </c>
       <c r="G1763" t="n">
-        <v>48233</v>
+        <v>23595</v>
       </c>
       <c r="H1763" t="n">
         <v>2024</v>
@@ -99174,7 +99172,7 @@
         <v>5</v>
       </c>
       <c r="J1763" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K1763" t="n">
         <v>0</v>
@@ -99189,7 +99187,7 @@
         <v>19</v>
       </c>
       <c r="O1763" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1763" t="n">
         <v>0</v>
@@ -99203,25 +99201,25 @@
     </row>
     <row r="1764">
       <c r="A1764" s="2" t="n">
-        <v>45422</v>
+        <v>45421</v>
       </c>
       <c r="B1764" t="n">
-        <v>232.0500030517578</v>
+        <v>261.6499938964844</v>
       </c>
       <c r="C1764" t="n">
-        <v>232.0500030517578</v>
+        <v>261.6499938964844</v>
       </c>
       <c r="D1764" t="n">
-        <v>232.0500030517578</v>
+        <v>236.75</v>
       </c>
       <c r="E1764" t="n">
-        <v>232.0500030517578</v>
+        <v>236.75</v>
       </c>
       <c r="F1764" t="n">
-        <v>232.0500030517578</v>
+        <v>236.75</v>
       </c>
       <c r="G1764" t="n">
-        <v>5599</v>
+        <v>48233</v>
       </c>
       <c r="H1764" t="n">
         <v>2024</v>
@@ -99230,7 +99228,7 @@
         <v>5</v>
       </c>
       <c r="J1764" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1764" t="n">
         <v>0</v>
@@ -99245,7 +99243,7 @@
         <v>19</v>
       </c>
       <c r="O1764" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1764" t="n">
         <v>0</v>
@@ -99259,25 +99257,25 @@
     </row>
     <row r="1765">
       <c r="A1765" s="2" t="n">
-        <v>45425</v>
+        <v>45422</v>
       </c>
       <c r="B1765" t="n">
-        <v>227.3999938964844</v>
+        <v>232.0500030517578</v>
       </c>
       <c r="C1765" t="n">
-        <v>227.3999938964844</v>
+        <v>232.0500030517578</v>
       </c>
       <c r="D1765" t="n">
-        <v>227.3999938964844</v>
+        <v>232.0500030517578</v>
       </c>
       <c r="E1765" t="n">
-        <v>227.3999938964844</v>
+        <v>232.0500030517578</v>
       </c>
       <c r="F1765" t="n">
-        <v>227.3999938964844</v>
+        <v>232.0500030517578</v>
       </c>
       <c r="G1765" t="n">
-        <v>1170</v>
+        <v>5599</v>
       </c>
       <c r="H1765" t="n">
         <v>2024</v>
@@ -99286,7 +99284,7 @@
         <v>5</v>
       </c>
       <c r="J1765" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K1765" t="n">
         <v>0</v>
@@ -99298,7 +99296,7 @@
         <v>0</v>
       </c>
       <c r="N1765" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O1765" t="n">
         <v>0</v>
@@ -99315,25 +99313,25 @@
     </row>
     <row r="1766">
       <c r="A1766" s="2" t="n">
-        <v>45426</v>
+        <v>45425</v>
       </c>
       <c r="B1766" t="n">
-        <v>222.8500061035156</v>
+        <v>227.3999938964844</v>
       </c>
       <c r="C1766" t="n">
-        <v>222.8500061035156</v>
+        <v>227.3999938964844</v>
       </c>
       <c r="D1766" t="n">
-        <v>222.8500061035156</v>
+        <v>227.3999938964844</v>
       </c>
       <c r="E1766" t="n">
-        <v>222.8500061035156</v>
+        <v>227.3999938964844</v>
       </c>
       <c r="F1766" t="n">
-        <v>222.8500061035156</v>
+        <v>227.3999938964844</v>
       </c>
       <c r="G1766" t="n">
-        <v>8033</v>
+        <v>1170</v>
       </c>
       <c r="H1766" t="n">
         <v>2024</v>
@@ -99342,7 +99340,7 @@
         <v>5</v>
       </c>
       <c r="J1766" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1766" t="n">
         <v>0</v>
@@ -99371,25 +99369,25 @@
     </row>
     <row r="1767">
       <c r="A1767" s="2" t="n">
-        <v>45427</v>
+        <v>45426</v>
       </c>
       <c r="B1767" t="n">
-        <v>218.3999938964844</v>
+        <v>222.8500061035156</v>
       </c>
       <c r="C1767" t="n">
         <v>222.8500061035156</v>
       </c>
       <c r="D1767" t="n">
-        <v>218.3999938964844</v>
+        <v>222.8500061035156</v>
       </c>
       <c r="E1767" t="n">
-        <v>218.3999938964844</v>
+        <v>222.8500061035156</v>
       </c>
       <c r="F1767" t="n">
-        <v>218.3999938964844</v>
+        <v>222.8500061035156</v>
       </c>
       <c r="G1767" t="n">
-        <v>2571</v>
+        <v>8033</v>
       </c>
       <c r="H1767" t="n">
         <v>2024</v>
@@ -99398,7 +99396,7 @@
         <v>5</v>
       </c>
       <c r="J1767" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1767" t="n">
         <v>0</v>
@@ -99427,16 +99425,16 @@
     </row>
     <row r="1768">
       <c r="A1768" s="2" t="n">
-        <v>45428</v>
+        <v>45427</v>
       </c>
       <c r="B1768" t="n">
         <v>218.3999938964844</v>
       </c>
       <c r="C1768" t="n">
+        <v>222.8500061035156</v>
+      </c>
+      <c r="D1768" t="n">
         <v>218.3999938964844</v>
-      </c>
-      <c r="D1768" t="n">
-        <v>214.0500030517578</v>
       </c>
       <c r="E1768" t="n">
         <v>218.3999938964844</v>
@@ -99445,7 +99443,7 @@
         <v>218.3999938964844</v>
       </c>
       <c r="G1768" t="n">
-        <v>10103</v>
+        <v>2571</v>
       </c>
       <c r="H1768" t="n">
         <v>2024</v>
@@ -99454,7 +99452,7 @@
         <v>5</v>
       </c>
       <c r="J1768" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1768" t="n">
         <v>0</v>
@@ -99483,25 +99481,25 @@
     </row>
     <row r="1769">
       <c r="A1769" s="2" t="n">
-        <v>45429</v>
+        <v>45428</v>
       </c>
       <c r="B1769" t="n">
-        <v>214.0500030517578</v>
+        <v>218.3999938964844</v>
       </c>
       <c r="C1769" t="n">
-        <v>216.9499969482422</v>
+        <v>218.3999938964844</v>
       </c>
       <c r="D1769" t="n">
         <v>214.0500030517578</v>
       </c>
       <c r="E1769" t="n">
-        <v>214.0500030517578</v>
+        <v>218.3999938964844</v>
       </c>
       <c r="F1769" t="n">
-        <v>214.0500030517578</v>
+        <v>218.3999938964844</v>
       </c>
       <c r="G1769" t="n">
-        <v>3829</v>
+        <v>10103</v>
       </c>
       <c r="H1769" t="n">
         <v>2024</v>
@@ -99510,7 +99508,7 @@
         <v>5</v>
       </c>
       <c r="J1769" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K1769" t="n">
         <v>0</v>
@@ -99539,25 +99537,25 @@
     </row>
     <row r="1770">
       <c r="A1770" s="2" t="n">
-        <v>45433</v>
+        <v>45429</v>
       </c>
       <c r="B1770" t="n">
-        <v>205.6000061035156</v>
+        <v>214.0500030517578</v>
       </c>
       <c r="C1770" t="n">
-        <v>205.6000061035156</v>
+        <v>216.9499969482422</v>
       </c>
       <c r="D1770" t="n">
-        <v>205.6000061035156</v>
+        <v>214.0500030517578</v>
       </c>
       <c r="E1770" t="n">
-        <v>205.6000061035156</v>
+        <v>214.0500030517578</v>
       </c>
       <c r="F1770" t="n">
-        <v>205.6000061035156</v>
+        <v>214.0500030517578</v>
       </c>
       <c r="G1770" t="n">
-        <v>25999</v>
+        <v>3829</v>
       </c>
       <c r="H1770" t="n">
         <v>2024</v>
@@ -99566,7 +99564,7 @@
         <v>5</v>
       </c>
       <c r="J1770" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K1770" t="n">
         <v>0</v>
@@ -99578,7 +99576,7 @@
         <v>0</v>
       </c>
       <c r="N1770" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O1770" t="n">
         <v>0</v>
@@ -99595,25 +99593,25 @@
     </row>
     <row r="1771">
       <c r="A1771" s="2" t="n">
-        <v>45434</v>
+        <v>45433</v>
       </c>
       <c r="B1771" t="n">
-        <v>209.6999969482422</v>
+        <v>205.6000061035156</v>
       </c>
       <c r="C1771" t="n">
-        <v>209.6999969482422</v>
+        <v>205.6000061035156</v>
       </c>
       <c r="D1771" t="n">
-        <v>201.5</v>
+        <v>205.6000061035156</v>
       </c>
       <c r="E1771" t="n">
-        <v>209.6999969482422</v>
+        <v>205.6000061035156</v>
       </c>
       <c r="F1771" t="n">
-        <v>209.6999969482422</v>
+        <v>205.6000061035156</v>
       </c>
       <c r="G1771" t="n">
-        <v>17238</v>
+        <v>25999</v>
       </c>
       <c r="H1771" t="n">
         <v>2024</v>
@@ -99622,7 +99620,7 @@
         <v>5</v>
       </c>
       <c r="J1771" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1771" t="n">
         <v>0</v>
@@ -99637,7 +99635,7 @@
         <v>21</v>
       </c>
       <c r="O1771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1771" t="n">
         <v>0</v>
@@ -99651,25 +99649,25 @@
     </row>
     <row r="1772">
       <c r="A1772" s="2" t="n">
-        <v>45435</v>
+        <v>45434</v>
       </c>
       <c r="B1772" t="n">
-        <v>213.8500061035156</v>
+        <v>209.6999969482422</v>
       </c>
       <c r="C1772" t="n">
-        <v>213.8500061035156</v>
+        <v>209.6999969482422</v>
       </c>
       <c r="D1772" t="n">
-        <v>213.8500061035156</v>
+        <v>201.5</v>
       </c>
       <c r="E1772" t="n">
-        <v>213.8500061035156</v>
+        <v>209.6999969482422</v>
       </c>
       <c r="F1772" t="n">
-        <v>213.8500061035156</v>
+        <v>209.6999969482422</v>
       </c>
       <c r="G1772" t="n">
-        <v>5994</v>
+        <v>17238</v>
       </c>
       <c r="H1772" t="n">
         <v>2024</v>
@@ -99678,7 +99676,7 @@
         <v>5</v>
       </c>
       <c r="J1772" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K1772" t="n">
         <v>0</v>
@@ -99693,7 +99691,7 @@
         <v>21</v>
       </c>
       <c r="O1772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1772" t="n">
         <v>0</v>
@@ -99707,25 +99705,25 @@
     </row>
     <row r="1773">
       <c r="A1773" s="2" t="n">
-        <v>45436</v>
+        <v>45435</v>
       </c>
       <c r="B1773" t="n">
-        <v>218.1000061035156</v>
+        <v>213.8500061035156</v>
       </c>
       <c r="C1773" t="n">
-        <v>218.1000061035156</v>
+        <v>213.8500061035156</v>
       </c>
       <c r="D1773" t="n">
-        <v>218.1000061035156</v>
+        <v>213.8500061035156</v>
       </c>
       <c r="E1773" t="n">
-        <v>218.1000061035156</v>
+        <v>213.8500061035156</v>
       </c>
       <c r="F1773" t="n">
-        <v>218.1000061035156</v>
+        <v>213.8500061035156</v>
       </c>
       <c r="G1773" t="n">
-        <v>839</v>
+        <v>5994</v>
       </c>
       <c r="H1773" t="n">
         <v>2024</v>
@@ -99734,7 +99732,7 @@
         <v>5</v>
       </c>
       <c r="J1773" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K1773" t="n">
         <v>0</v>
@@ -99763,25 +99761,25 @@
     </row>
     <row r="1774">
       <c r="A1774" s="2" t="n">
-        <v>45439</v>
+        <v>45436</v>
       </c>
       <c r="B1774" t="n">
-        <v>222.4499969482422</v>
+        <v>218.1000061035156</v>
       </c>
       <c r="C1774" t="n">
-        <v>222.4499969482422</v>
+        <v>218.1000061035156</v>
       </c>
       <c r="D1774" t="n">
-        <v>222.3999938964844</v>
+        <v>218.1000061035156</v>
       </c>
       <c r="E1774" t="n">
-        <v>222.4499969482422</v>
+        <v>218.1000061035156</v>
       </c>
       <c r="F1774" t="n">
-        <v>222.4499969482422</v>
+        <v>218.1000061035156</v>
       </c>
       <c r="G1774" t="n">
-        <v>1988</v>
+        <v>839</v>
       </c>
       <c r="H1774" t="n">
         <v>2024</v>
@@ -99790,7 +99788,7 @@
         <v>5</v>
       </c>
       <c r="J1774" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K1774" t="n">
         <v>0</v>
@@ -99802,7 +99800,7 @@
         <v>0</v>
       </c>
       <c r="N1774" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O1774" t="n">
         <v>0</v>
@@ -99811,7 +99809,7 @@
         <v>0</v>
       </c>
       <c r="Q1774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R1774" t="n">
         <v>0</v>
@@ -99819,25 +99817,25 @@
     </row>
     <row r="1775">
       <c r="A1775" s="2" t="n">
-        <v>45440</v>
+        <v>45439</v>
       </c>
       <c r="B1775" t="n">
-        <v>226.8500061035156</v>
+        <v>222.4499969482422</v>
       </c>
       <c r="C1775" t="n">
-        <v>226.8500061035156</v>
+        <v>222.4499969482422</v>
       </c>
       <c r="D1775" t="n">
-        <v>226.8500061035156</v>
+        <v>222.3999938964844</v>
       </c>
       <c r="E1775" t="n">
-        <v>226.8500061035156</v>
+        <v>222.4499969482422</v>
       </c>
       <c r="F1775" t="n">
-        <v>226.8500061035156</v>
+        <v>222.4499969482422</v>
       </c>
       <c r="G1775" t="n">
-        <v>12242</v>
+        <v>1988</v>
       </c>
       <c r="H1775" t="n">
         <v>2024</v>
@@ -99846,7 +99844,7 @@
         <v>5</v>
       </c>
       <c r="J1775" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K1775" t="n">
         <v>0</v>
@@ -99867,7 +99865,7 @@
         <v>0</v>
       </c>
       <c r="Q1775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R1775" t="n">
         <v>0</v>
@@ -99875,25 +99873,25 @@
     </row>
     <row r="1776">
       <c r="A1776" s="2" t="n">
-        <v>45441</v>
+        <v>45440</v>
       </c>
       <c r="B1776" t="n">
-        <v>231.3500061035156</v>
+        <v>226.8500061035156</v>
       </c>
       <c r="C1776" t="n">
-        <v>231.3500061035156</v>
+        <v>226.8500061035156</v>
       </c>
       <c r="D1776" t="n">
-        <v>231.3500061035156</v>
+        <v>226.8500061035156</v>
       </c>
       <c r="E1776" t="n">
-        <v>231.3500061035156</v>
+        <v>226.8500061035156</v>
       </c>
       <c r="F1776" t="n">
-        <v>231.3500061035156</v>
+        <v>226.8500061035156</v>
       </c>
       <c r="G1776" t="n">
-        <v>27312</v>
+        <v>12242</v>
       </c>
       <c r="H1776" t="n">
         <v>2024</v>
@@ -99902,7 +99900,7 @@
         <v>5</v>
       </c>
       <c r="J1776" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K1776" t="n">
         <v>0</v>
@@ -99931,25 +99929,25 @@
     </row>
     <row r="1777">
       <c r="A1777" s="2" t="n">
-        <v>45442</v>
+        <v>45441</v>
       </c>
       <c r="B1777" t="n">
-        <v>235.9499969482422</v>
+        <v>231.3500061035156</v>
       </c>
       <c r="C1777" t="n">
-        <v>235.9499969482422</v>
+        <v>231.3500061035156</v>
       </c>
       <c r="D1777" t="n">
-        <v>235.9499969482422</v>
+        <v>231.3500061035156</v>
       </c>
       <c r="E1777" t="n">
-        <v>235.9499969482422</v>
+        <v>231.3500061035156</v>
       </c>
       <c r="F1777" t="n">
-        <v>235.9499969482422</v>
+        <v>231.3500061035156</v>
       </c>
       <c r="G1777" t="n">
-        <v>3940</v>
+        <v>27312</v>
       </c>
       <c r="H1777" t="n">
         <v>2024</v>
@@ -99958,7 +99956,7 @@
         <v>5</v>
       </c>
       <c r="J1777" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1777" t="n">
         <v>0</v>
@@ -99987,25 +99985,25 @@
     </row>
     <row r="1778">
       <c r="A1778" s="2" t="n">
-        <v>45443</v>
+        <v>45442</v>
       </c>
       <c r="B1778" t="n">
-        <v>240.6499938964844</v>
+        <v>235.9499969482422</v>
       </c>
       <c r="C1778" t="n">
-        <v>240.6499938964844</v>
+        <v>235.9499969482422</v>
       </c>
       <c r="D1778" t="n">
-        <v>238.75</v>
+        <v>235.9499969482422</v>
       </c>
       <c r="E1778" t="n">
-        <v>240.6499938964844</v>
+        <v>235.9499969482422</v>
       </c>
       <c r="F1778" t="n">
-        <v>240.6499938964844</v>
+        <v>235.9499969482422</v>
       </c>
       <c r="G1778" t="n">
-        <v>23556</v>
+        <v>3940</v>
       </c>
       <c r="H1778" t="n">
         <v>2024</v>
@@ -100014,7 +100012,7 @@
         <v>5</v>
       </c>
       <c r="J1778" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K1778" t="n">
         <v>0</v>
@@ -100043,34 +100041,34 @@
     </row>
     <row r="1779">
       <c r="A1779" s="2" t="n">
-        <v>45446</v>
+        <v>45443</v>
       </c>
       <c r="B1779" t="n">
-        <v>235.8500061035156</v>
+        <v>240.6499938964844</v>
       </c>
       <c r="C1779" t="n">
-        <v>244.9499969482422</v>
+        <v>240.6499938964844</v>
       </c>
       <c r="D1779" t="n">
-        <v>235.8500061035156</v>
+        <v>238.75</v>
       </c>
       <c r="E1779" t="n">
-        <v>235.8500061035156</v>
+        <v>240.6499938964844</v>
       </c>
       <c r="F1779" t="n">
-        <v>235.8500061035156</v>
+        <v>240.6499938964844</v>
       </c>
       <c r="G1779" t="n">
-        <v>26142</v>
+        <v>23556</v>
       </c>
       <c r="H1779" t="n">
         <v>2024</v>
       </c>
       <c r="I1779" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J1779" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="K1779" t="n">
         <v>0</v>
@@ -100082,7 +100080,7 @@
         <v>0</v>
       </c>
       <c r="N1779" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O1779" t="n">
         <v>0</v>
@@ -100099,25 +100097,25 @@
     </row>
     <row r="1780">
       <c r="A1780" s="2" t="n">
-        <v>45447</v>
+        <v>45446</v>
       </c>
       <c r="B1780" t="n">
-        <v>231.1499938964844</v>
+        <v>235.8500061035156</v>
       </c>
       <c r="C1780" t="n">
-        <v>231.1499938964844</v>
+        <v>244.9499969482422</v>
       </c>
       <c r="D1780" t="n">
-        <v>231.1499938964844</v>
+        <v>235.8500061035156</v>
       </c>
       <c r="E1780" t="n">
-        <v>231.1499938964844</v>
+        <v>235.8500061035156</v>
       </c>
       <c r="F1780" t="n">
-        <v>231.1499938964844</v>
+        <v>235.8500061035156</v>
       </c>
       <c r="G1780" t="n">
-        <v>3269</v>
+        <v>26142</v>
       </c>
       <c r="H1780" t="n">
         <v>2024</v>
@@ -100126,7 +100124,7 @@
         <v>6</v>
       </c>
       <c r="J1780" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1780" t="n">
         <v>0</v>
@@ -100155,25 +100153,25 @@
     </row>
     <row r="1781">
       <c r="A1781" s="2" t="n">
-        <v>45448</v>
+        <v>45447</v>
       </c>
       <c r="B1781" t="n">
-        <v>226.5500030517578</v>
+        <v>231.1499938964844</v>
       </c>
       <c r="C1781" t="n">
-        <v>226.5500030517578</v>
+        <v>231.1499938964844</v>
       </c>
       <c r="D1781" t="n">
-        <v>226.5500030517578</v>
+        <v>231.1499938964844</v>
       </c>
       <c r="E1781" t="n">
-        <v>226.5500030517578</v>
+        <v>231.1499938964844</v>
       </c>
       <c r="F1781" t="n">
-        <v>226.5500030517578</v>
+        <v>231.1499938964844</v>
       </c>
       <c r="G1781" t="n">
-        <v>5406</v>
+        <v>3269</v>
       </c>
       <c r="H1781" t="n">
         <v>2024</v>
@@ -100182,7 +100180,7 @@
         <v>6</v>
       </c>
       <c r="J1781" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1781" t="n">
         <v>0</v>
@@ -100211,25 +100209,25 @@
     </row>
     <row r="1782">
       <c r="A1782" s="2" t="n">
-        <v>45449</v>
+        <v>45448</v>
       </c>
       <c r="B1782" t="n">
-        <v>222.0500030517578</v>
+        <v>226.5500030517578</v>
       </c>
       <c r="C1782" t="n">
-        <v>223</v>
+        <v>226.5500030517578</v>
       </c>
       <c r="D1782" t="n">
-        <v>222.0500030517578</v>
+        <v>226.5500030517578</v>
       </c>
       <c r="E1782" t="n">
-        <v>222.0500030517578</v>
+        <v>226.5500030517578</v>
       </c>
       <c r="F1782" t="n">
-        <v>222.0500030517578</v>
+        <v>226.5500030517578</v>
       </c>
       <c r="G1782" t="n">
-        <v>5053</v>
+        <v>5406</v>
       </c>
       <c r="H1782" t="n">
         <v>2024</v>
@@ -100238,7 +100236,7 @@
         <v>6</v>
       </c>
       <c r="J1782" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K1782" t="n">
         <v>0</v>
@@ -100256,36 +100254,36 @@
         <v>0</v>
       </c>
       <c r="P1782" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q1782" t="n">
         <v>0</v>
       </c>
       <c r="R1782" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1783">
       <c r="A1783" s="2" t="n">
-        <v>45450</v>
+        <v>45449</v>
       </c>
       <c r="B1783" t="n">
-        <v>217.6000061035156</v>
+        <v>222.0500030517578</v>
       </c>
       <c r="C1783" t="n">
-        <v>226.4499969482422</v>
+        <v>223</v>
       </c>
       <c r="D1783" t="n">
-        <v>217.6000061035156</v>
+        <v>222.0500030517578</v>
       </c>
       <c r="E1783" t="n">
-        <v>226.4499969482422</v>
+        <v>222.0500030517578</v>
       </c>
       <c r="F1783" t="n">
-        <v>226.4499969482422</v>
+        <v>222.0500030517578</v>
       </c>
       <c r="G1783" t="n">
-        <v>12464</v>
+        <v>5053</v>
       </c>
       <c r="H1783" t="n">
         <v>2024</v>
@@ -100294,7 +100292,7 @@
         <v>6</v>
       </c>
       <c r="J1783" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K1783" t="n">
         <v>0</v>
@@ -100309,39 +100307,39 @@
         <v>23</v>
       </c>
       <c r="O1783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1783" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q1783" t="n">
         <v>0</v>
       </c>
       <c r="R1783" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1784">
       <c r="A1784" s="2" t="n">
-        <v>45453</v>
+        <v>45450</v>
       </c>
       <c r="B1784" t="n">
-        <v>230.9700012207031</v>
+        <v>217.6000061035156</v>
       </c>
       <c r="C1784" t="n">
-        <v>230.9700012207031</v>
+        <v>226.4499969482422</v>
       </c>
       <c r="D1784" t="n">
-        <v>230.9700012207031</v>
+        <v>217.6000061035156</v>
       </c>
       <c r="E1784" t="n">
-        <v>230.9700012207031</v>
+        <v>226.4499969482422</v>
       </c>
       <c r="F1784" t="n">
-        <v>230.9700012207031</v>
+        <v>226.4499969482422</v>
       </c>
       <c r="G1784" t="n">
-        <v>1324</v>
+        <v>12464</v>
       </c>
       <c r="H1784" t="n">
         <v>2024</v>
@@ -100350,7 +100348,7 @@
         <v>6</v>
       </c>
       <c r="J1784" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K1784" t="n">
         <v>0</v>
@@ -100362,10 +100360,10 @@
         <v>0</v>
       </c>
       <c r="N1784" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O1784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1784" t="n">
         <v>0</v>
@@ -100379,25 +100377,25 @@
     </row>
     <row r="1785">
       <c r="A1785" s="2" t="n">
-        <v>45454</v>
+        <v>45453</v>
       </c>
       <c r="B1785" t="n">
-        <v>235.5800018310547</v>
+        <v>230.9700012207031</v>
       </c>
       <c r="C1785" t="n">
-        <v>235.5800018310547</v>
+        <v>230.9700012207031</v>
       </c>
       <c r="D1785" t="n">
-        <v>235.5800018310547</v>
+        <v>230.9700012207031</v>
       </c>
       <c r="E1785" t="n">
-        <v>235.5800018310547</v>
+        <v>230.9700012207031</v>
       </c>
       <c r="F1785" t="n">
-        <v>235.5800018310547</v>
+        <v>230.9700012207031</v>
       </c>
       <c r="G1785" t="n">
-        <v>3154</v>
+        <v>1324</v>
       </c>
       <c r="H1785" t="n">
         <v>2024</v>
@@ -100406,7 +100404,7 @@
         <v>6</v>
       </c>
       <c r="J1785" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1785" t="n">
         <v>0</v>
@@ -100435,25 +100433,25 @@
     </row>
     <row r="1786">
       <c r="A1786" s="2" t="n">
-        <v>45455</v>
+        <v>45454</v>
       </c>
       <c r="B1786" t="n">
-        <v>240.2899932861328</v>
+        <v>235.5800018310547</v>
       </c>
       <c r="C1786" t="n">
-        <v>240.2899932861328</v>
+        <v>235.5800018310547</v>
       </c>
       <c r="D1786" t="n">
-        <v>240.2899932861328</v>
+        <v>235.5800018310547</v>
       </c>
       <c r="E1786" t="n">
-        <v>240.2899932861328</v>
+        <v>235.5800018310547</v>
       </c>
       <c r="F1786" t="n">
-        <v>240.2899932861328</v>
+        <v>235.5800018310547</v>
       </c>
       <c r="G1786" t="n">
-        <v>2636</v>
+        <v>3154</v>
       </c>
       <c r="H1786" t="n">
         <v>2024</v>
@@ -100462,7 +100460,7 @@
         <v>6</v>
       </c>
       <c r="J1786" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1786" t="n">
         <v>0</v>
@@ -100491,25 +100489,25 @@
     </row>
     <row r="1787">
       <c r="A1787" s="2" t="n">
-        <v>45456</v>
+        <v>45455</v>
       </c>
       <c r="B1787" t="n">
-        <v>245.0899963378906</v>
+        <v>240.2899932861328</v>
       </c>
       <c r="C1787" t="n">
-        <v>245.0899963378906</v>
+        <v>240.2899932861328</v>
       </c>
       <c r="D1787" t="n">
-        <v>245.0899963378906</v>
+        <v>240.2899932861328</v>
       </c>
       <c r="E1787" t="n">
-        <v>245.0899963378906</v>
+        <v>240.2899932861328</v>
       </c>
       <c r="F1787" t="n">
-        <v>245.0899963378906</v>
+        <v>240.2899932861328</v>
       </c>
       <c r="G1787" t="n">
-        <v>1631</v>
+        <v>2636</v>
       </c>
       <c r="H1787" t="n">
         <v>2024</v>
@@ -100518,7 +100516,7 @@
         <v>6</v>
       </c>
       <c r="J1787" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1787" t="n">
         <v>0</v>
@@ -100547,25 +100545,25 @@
     </row>
     <row r="1788">
       <c r="A1788" s="2" t="n">
-        <v>45457</v>
+        <v>45456</v>
       </c>
       <c r="B1788" t="n">
-        <v>249.9900054931641</v>
+        <v>245.0899963378906</v>
       </c>
       <c r="C1788" t="n">
-        <v>249.9900054931641</v>
+        <v>245.0899963378906</v>
       </c>
       <c r="D1788" t="n">
-        <v>249.9900054931641</v>
+        <v>245.0899963378906</v>
       </c>
       <c r="E1788" t="n">
-        <v>249.9900054931641</v>
+        <v>245.0899963378906</v>
       </c>
       <c r="F1788" t="n">
-        <v>249.9900054931641</v>
+        <v>245.0899963378906</v>
       </c>
       <c r="G1788" t="n">
-        <v>1183</v>
+        <v>1631</v>
       </c>
       <c r="H1788" t="n">
         <v>2024</v>
@@ -100574,7 +100572,7 @@
         <v>6</v>
       </c>
       <c r="J1788" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1788" t="n">
         <v>0</v>
@@ -100603,25 +100601,25 @@
     </row>
     <row r="1789">
       <c r="A1789" s="2" t="n">
-        <v>45461</v>
+        <v>45457</v>
       </c>
       <c r="B1789" t="n">
-        <v>262.4800109863281</v>
+        <v>249.9900054931641</v>
       </c>
       <c r="C1789" t="n">
-        <v>262.4800109863281</v>
+        <v>249.9900054931641</v>
       </c>
       <c r="D1789" t="n">
-        <v>257</v>
+        <v>249.9900054931641</v>
       </c>
       <c r="E1789" t="n">
-        <v>262.4800109863281</v>
+        <v>249.9900054931641</v>
       </c>
       <c r="F1789" t="n">
-        <v>262.4800109863281</v>
+        <v>249.9900054931641</v>
       </c>
       <c r="G1789" t="n">
-        <v>28486</v>
+        <v>1183</v>
       </c>
       <c r="H1789" t="n">
         <v>2024</v>
@@ -100630,7 +100628,7 @@
         <v>6</v>
       </c>
       <c r="J1789" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K1789" t="n">
         <v>0</v>
@@ -100642,7 +100640,7 @@
         <v>0</v>
       </c>
       <c r="N1789" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O1789" t="n">
         <v>0</v>
@@ -100659,25 +100657,25 @@
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
-        <v>45462</v>
+        <v>45461</v>
       </c>
       <c r="B1790" t="n">
-        <v>275.6000061035156</v>
+        <v>262.4800109863281</v>
       </c>
       <c r="C1790" t="n">
-        <v>275.6000061035156</v>
+        <v>262.4800109863281</v>
       </c>
       <c r="D1790" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="E1790" t="n">
-        <v>275.6000061035156</v>
+        <v>262.4800109863281</v>
       </c>
       <c r="F1790" t="n">
-        <v>275.6000061035156</v>
+        <v>262.4800109863281</v>
       </c>
       <c r="G1790" t="n">
-        <v>60192</v>
+        <v>28486</v>
       </c>
       <c r="H1790" t="n">
         <v>2024</v>
@@ -100686,7 +100684,7 @@
         <v>6</v>
       </c>
       <c r="J1790" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1790" t="n">
         <v>0</v>
@@ -100715,25 +100713,25 @@
     </row>
     <row r="1791">
       <c r="A1791" s="2" t="n">
-        <v>45463</v>
+        <v>45462</v>
       </c>
       <c r="B1791" t="n">
-        <v>289.3800048828125</v>
+        <v>275.6000061035156</v>
       </c>
       <c r="C1791" t="n">
-        <v>289.3800048828125</v>
+        <v>275.6000061035156</v>
       </c>
       <c r="D1791" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E1791" t="n">
-        <v>289.3800048828125</v>
+        <v>275.6000061035156</v>
       </c>
       <c r="F1791" t="n">
-        <v>289.3800048828125</v>
+        <v>275.6000061035156</v>
       </c>
       <c r="G1791" t="n">
-        <v>53845</v>
+        <v>60192</v>
       </c>
       <c r="H1791" t="n">
         <v>2024</v>
@@ -100742,7 +100740,7 @@
         <v>6</v>
       </c>
       <c r="J1791" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1791" t="n">
         <v>0</v>
@@ -100771,25 +100769,25 @@
     </row>
     <row r="1792">
       <c r="A1792" s="2" t="n">
-        <v>45464</v>
+        <v>45463</v>
       </c>
       <c r="B1792" t="n">
-        <v>298</v>
+        <v>289.3800048828125</v>
       </c>
       <c r="C1792" t="n">
-        <v>303.8399963378906</v>
+        <v>289.3800048828125</v>
       </c>
       <c r="D1792" t="n">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="E1792" t="n">
-        <v>303.8399963378906</v>
+        <v>289.3800048828125</v>
       </c>
       <c r="F1792" t="n">
-        <v>303.8399963378906</v>
+        <v>289.3800048828125</v>
       </c>
       <c r="G1792" t="n">
-        <v>57204</v>
+        <v>53845</v>
       </c>
       <c r="H1792" t="n">
         <v>2024</v>
@@ -100798,7 +100796,7 @@
         <v>6</v>
       </c>
       <c r="J1792" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1792" t="n">
         <v>0</v>
@@ -100827,25 +100825,25 @@
     </row>
     <row r="1793">
       <c r="A1793" s="2" t="n">
-        <v>45467</v>
+        <v>45464</v>
       </c>
       <c r="B1793" t="n">
-        <v>314.7000122070312</v>
+        <v>298</v>
       </c>
       <c r="C1793" t="n">
-        <v>314.7999877929688</v>
+        <v>303.8399963378906</v>
       </c>
       <c r="D1793" t="n">
-        <v>288.6400146484375</v>
+        <v>296</v>
       </c>
       <c r="E1793" t="n">
-        <v>293.3800048828125</v>
+        <v>303.8399963378906</v>
       </c>
       <c r="F1793" t="n">
-        <v>293.3800048828125</v>
+        <v>303.8399963378906</v>
       </c>
       <c r="G1793" t="n">
-        <v>43448</v>
+        <v>57204</v>
       </c>
       <c r="H1793" t="n">
         <v>2024</v>
@@ -100854,7 +100852,7 @@
         <v>6</v>
       </c>
       <c r="J1793" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K1793" t="n">
         <v>0</v>
@@ -100866,7 +100864,7 @@
         <v>0</v>
       </c>
       <c r="N1793" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O1793" t="n">
         <v>0</v>
@@ -100883,25 +100881,25 @@
     </row>
     <row r="1794">
       <c r="A1794" s="2" t="n">
-        <v>45468</v>
+        <v>45467</v>
       </c>
       <c r="B1794" t="n">
-        <v>279</v>
+        <v>314.7000122070312</v>
       </c>
       <c r="C1794" t="n">
-        <v>287</v>
+        <v>314.7999877929688</v>
       </c>
       <c r="D1794" t="n">
-        <v>278.7099914550781</v>
+        <v>288.6400146484375</v>
       </c>
       <c r="E1794" t="n">
-        <v>278.7099914550781</v>
+        <v>293.3800048828125</v>
       </c>
       <c r="F1794" t="n">
-        <v>278.7099914550781</v>
+        <v>293.3800048828125</v>
       </c>
       <c r="G1794" t="n">
-        <v>44112</v>
+        <v>43448</v>
       </c>
       <c r="H1794" t="n">
         <v>2024</v>
@@ -100910,7 +100908,7 @@
         <v>6</v>
       </c>
       <c r="J1794" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K1794" t="n">
         <v>0</v>
@@ -100928,36 +100926,36 @@
         <v>0</v>
       </c>
       <c r="P1794" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q1794" t="n">
         <v>0</v>
       </c>
       <c r="R1794" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1795">
       <c r="A1795" s="2" t="n">
-        <v>45469</v>
+        <v>45468</v>
       </c>
       <c r="B1795" t="n">
-        <v>264.7699890136719</v>
+        <v>279</v>
       </c>
       <c r="C1795" t="n">
-        <v>292.6400146484375</v>
+        <v>287</v>
       </c>
       <c r="D1795" t="n">
-        <v>264.7699890136719</v>
+        <v>278.7099914550781</v>
       </c>
       <c r="E1795" t="n">
-        <v>282.760009765625</v>
+        <v>278.7099914550781</v>
       </c>
       <c r="F1795" t="n">
-        <v>282.760009765625</v>
+        <v>278.7099914550781</v>
       </c>
       <c r="G1795" t="n">
-        <v>29650</v>
+        <v>44112</v>
       </c>
       <c r="H1795" t="n">
         <v>2024</v>
@@ -100966,7 +100964,7 @@
         <v>6</v>
       </c>
       <c r="J1795" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K1795" t="n">
         <v>0</v>
@@ -100984,36 +100982,36 @@
         <v>0</v>
       </c>
       <c r="P1795" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q1795" t="n">
         <v>0</v>
       </c>
       <c r="R1795" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1796">
       <c r="A1796" s="2" t="n">
-        <v>45470</v>
+        <v>45469</v>
       </c>
       <c r="B1796" t="n">
-        <v>282</v>
+        <v>264.7699890136719</v>
       </c>
       <c r="C1796" t="n">
-        <v>296.8900146484375</v>
+        <v>292.6400146484375</v>
       </c>
       <c r="D1796" t="n">
-        <v>281</v>
+        <v>264.7699890136719</v>
       </c>
       <c r="E1796" t="n">
-        <v>296.8099975585938</v>
+        <v>282.760009765625</v>
       </c>
       <c r="F1796" t="n">
-        <v>296.8099975585938</v>
+        <v>282.760009765625</v>
       </c>
       <c r="G1796" t="n">
-        <v>25069</v>
+        <v>29650</v>
       </c>
       <c r="H1796" t="n">
         <v>2024</v>
@@ -101022,7 +101020,7 @@
         <v>6</v>
       </c>
       <c r="J1796" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K1796" t="n">
         <v>0</v>
@@ -101051,25 +101049,25 @@
     </row>
     <row r="1797">
       <c r="A1797" s="2" t="n">
-        <v>45471</v>
+        <v>45470</v>
       </c>
       <c r="B1797" t="n">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C1797" t="n">
-        <v>311</v>
+        <v>296.8900146484375</v>
       </c>
       <c r="D1797" t="n">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="E1797" t="n">
-        <v>310.0599975585938</v>
+        <v>296.8099975585938</v>
       </c>
       <c r="F1797" t="n">
-        <v>310.0599975585938</v>
+        <v>296.8099975585938</v>
       </c>
       <c r="G1797" t="n">
-        <v>36337</v>
+        <v>25069</v>
       </c>
       <c r="H1797" t="n">
         <v>2024</v>
@@ -101078,7 +101076,7 @@
         <v>6</v>
       </c>
       <c r="J1797" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K1797" t="n">
         <v>0</v>
@@ -101107,34 +101105,34 @@
     </row>
     <row r="1798">
       <c r="A1798" s="2" t="n">
-        <v>45474</v>
+        <v>45471</v>
       </c>
       <c r="B1798" t="n">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C1798" t="n">
-        <v>325.0499877929688</v>
+        <v>311</v>
       </c>
       <c r="D1798" t="n">
-        <v>294.6000061035156</v>
+        <v>298</v>
       </c>
       <c r="E1798" t="n">
-        <v>304.4500122070312</v>
+        <v>310.0599975585938</v>
       </c>
       <c r="F1798" t="n">
-        <v>304.4500122070312</v>
+        <v>310.0599975585938</v>
       </c>
       <c r="G1798" t="n">
-        <v>42224</v>
+        <v>36337</v>
       </c>
       <c r="H1798" t="n">
         <v>2024</v>
       </c>
       <c r="I1798" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J1798" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="K1798" t="n">
         <v>0</v>
@@ -101146,7 +101144,7 @@
         <v>0</v>
       </c>
       <c r="N1798" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O1798" t="n">
         <v>0</v>
@@ -101157,29 +101155,31 @@
       <c r="Q1798" t="n">
         <v>0</v>
       </c>
-      <c r="R1798" t="inlineStr"/>
+      <c r="R1798" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1799">
       <c r="A1799" s="2" t="n">
-        <v>45475</v>
+        <v>45474</v>
       </c>
       <c r="B1799" t="n">
-        <v>289.25</v>
+        <v>310</v>
       </c>
       <c r="C1799" t="n">
-        <v>310</v>
+        <v>325.0499877929688</v>
       </c>
       <c r="D1799" t="n">
-        <v>289.25</v>
+        <v>294.6000061035156</v>
       </c>
       <c r="E1799" t="n">
-        <v>308.8999938964844</v>
+        <v>304.4500122070312</v>
       </c>
       <c r="F1799" t="n">
-        <v>308.8999938964844</v>
+        <v>304.4500122070312</v>
       </c>
       <c r="G1799" t="n">
-        <v>34479</v>
+        <v>42224</v>
       </c>
       <c r="H1799" t="n">
         <v>2024</v>
@@ -101188,7 +101188,7 @@
         <v>7</v>
       </c>
       <c r="J1799" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K1799" t="n">
         <v>0</v>
@@ -101203,7 +101203,7 @@
         <v>27</v>
       </c>
       <c r="O1799" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1799" t="n">
         <v>0</v>
@@ -101211,29 +101211,31 @@
       <c r="Q1799" t="n">
         <v>0</v>
       </c>
-      <c r="R1799" t="inlineStr"/>
+      <c r="R1799" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1800">
       <c r="A1800" s="2" t="n">
-        <v>45476</v>
+        <v>45475</v>
       </c>
       <c r="B1800" t="n">
-        <v>324.25</v>
+        <v>289.25</v>
       </c>
       <c r="C1800" t="n">
-        <v>324.25</v>
+        <v>310</v>
       </c>
       <c r="D1800" t="n">
-        <v>298</v>
+        <v>289.25</v>
       </c>
       <c r="E1800" t="n">
-        <v>309.1000061035156</v>
+        <v>308.8999938964844</v>
       </c>
       <c r="F1800" t="n">
-        <v>309.1000061035156</v>
+        <v>308.8999938964844</v>
       </c>
       <c r="G1800" t="n">
-        <v>23360</v>
+        <v>34479</v>
       </c>
       <c r="H1800" t="n">
         <v>2024</v>
@@ -101242,7 +101244,7 @@
         <v>7</v>
       </c>
       <c r="J1800" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K1800" t="n">
         <v>0</v>
@@ -101265,29 +101267,31 @@
       <c r="Q1800" t="n">
         <v>0</v>
       </c>
-      <c r="R1800" t="inlineStr"/>
+      <c r="R1800" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1801">
       <c r="A1801" s="2" t="n">
-        <v>45477</v>
+        <v>45476</v>
       </c>
       <c r="B1801" t="n">
-        <v>305</v>
+        <v>324.25</v>
       </c>
       <c r="C1801" t="n">
-        <v>309</v>
+        <v>324.25</v>
       </c>
       <c r="D1801" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E1801" t="n">
-        <v>301.7999877929688</v>
+        <v>309.1000061035156</v>
       </c>
       <c r="F1801" t="n">
-        <v>301.7999877929688</v>
+        <v>309.1000061035156</v>
       </c>
       <c r="G1801" t="n">
-        <v>17070</v>
+        <v>23360</v>
       </c>
       <c r="H1801" t="n">
         <v>2024</v>
@@ -101296,7 +101300,7 @@
         <v>7</v>
       </c>
       <c r="J1801" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1801" t="n">
         <v>0</v>
@@ -101319,29 +101323,31 @@
       <c r="Q1801" t="n">
         <v>0</v>
       </c>
-      <c r="R1801" t="inlineStr"/>
+      <c r="R1801" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1802">
       <c r="A1802" s="2" t="n">
-        <v>45478</v>
+        <v>45477</v>
       </c>
       <c r="B1802" t="n">
-        <v>303.75</v>
+        <v>305</v>
       </c>
       <c r="C1802" t="n">
-        <v>303.75</v>
+        <v>309</v>
       </c>
       <c r="D1802" t="n">
-        <v>286.75</v>
+        <v>294</v>
       </c>
       <c r="E1802" t="n">
-        <v>292.7000122070312</v>
+        <v>301.7999877929688</v>
       </c>
       <c r="F1802" t="n">
-        <v>292.7000122070312</v>
+        <v>301.7999877929688</v>
       </c>
       <c r="G1802" t="n">
-        <v>17170</v>
+        <v>17070</v>
       </c>
       <c r="H1802" t="n">
         <v>2024</v>
@@ -101350,7 +101356,7 @@
         <v>7</v>
       </c>
       <c r="J1802" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1802" t="n">
         <v>0</v>
@@ -101373,7 +101379,551 @@
       <c r="Q1802" t="n">
         <v>0</v>
       </c>
-      <c r="R1802" t="inlineStr"/>
+      <c r="R1802" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>303.75</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>303.75</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>286.75</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>292.7000122070312</v>
+      </c>
+      <c r="F1803" t="n">
+        <v>292.7000122070312</v>
+      </c>
+      <c r="G1803" t="n">
+        <v>17170</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1803" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1803" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1803" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>292.7000122070312</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>300</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>278.1000061035156</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>288</v>
+      </c>
+      <c r="F1804" t="n">
+        <v>288</v>
+      </c>
+      <c r="G1804" t="n">
+        <v>20067</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1804" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1804" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1804" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1804" t="inlineStr"/>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>287.5</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>292.7999877929688</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>273.6000061035156</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>274.6499938964844</v>
+      </c>
+      <c r="F1805" t="n">
+        <v>274.6499938964844</v>
+      </c>
+      <c r="G1805" t="n">
+        <v>21424</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1805" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1805" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1805" t="inlineStr"/>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>273.8500061035156</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>283</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>266</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>271.1499938964844</v>
+      </c>
+      <c r="F1806" t="n">
+        <v>271.1499938964844</v>
+      </c>
+      <c r="G1806" t="n">
+        <v>12629</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1806" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1806" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1806" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1806" t="inlineStr"/>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>279.8999938964844</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>284.7000122070312</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>271.2000122070312</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>284.7000122070312</v>
+      </c>
+      <c r="F1807" t="n">
+        <v>284.7000122070312</v>
+      </c>
+      <c r="G1807" t="n">
+        <v>21602</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1807" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1807" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1807" t="inlineStr"/>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>298</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>298</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>287.1000061035156</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>290.8500061035156</v>
+      </c>
+      <c r="F1808" t="n">
+        <v>290.8500061035156</v>
+      </c>
+      <c r="G1808" t="n">
+        <v>10398</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1808" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1808" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1808" t="inlineStr"/>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>297.7999877929688</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>299.0499877929688</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>280</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>283.5</v>
+      </c>
+      <c r="F1809" t="n">
+        <v>283.5</v>
+      </c>
+      <c r="G1809" t="n">
+        <v>10877</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1809" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1809" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1809" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1809" t="inlineStr"/>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>290.3999938964844</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>279</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>282.8500061035156</v>
+      </c>
+      <c r="F1810" t="n">
+        <v>282.8500061035156</v>
+      </c>
+      <c r="G1810" t="n">
+        <v>8813</v>
+      </c>
+      <c r="H1810" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1810" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1810" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1810" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1810" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1810" t="inlineStr"/>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>282.8500061035156</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>282.8500061035156</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>268.7000122070312</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>275.2999877929688</v>
+      </c>
+      <c r="F1811" t="n">
+        <v>275.2999877929688</v>
+      </c>
+      <c r="G1811" t="n">
+        <v>20753</v>
+      </c>
+      <c r="H1811" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1811" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1811" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1811" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1811" t="inlineStr"/>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>275.2999877929688</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>280.5</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>261.5499877929688</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>262.8999938964844</v>
+      </c>
+      <c r="F1812" t="n">
+        <v>262.8999938964844</v>
+      </c>
+      <c r="G1812" t="n">
+        <v>38464</v>
+      </c>
+      <c r="H1812" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1812" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1812" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1812" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1812" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CROWN.NS.xlsx
+++ b/stock_historical_data/1d/CROWN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1812"/>
+  <dimension ref="A1:R1822"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97349,7 +97349,9 @@
       <c r="Q1730" t="n">
         <v>0</v>
       </c>
-      <c r="R1730" t="inlineStr"/>
+      <c r="R1730" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1731">
       <c r="A1731" s="2" t="n">
@@ -101491,7 +101493,9 @@
       <c r="Q1804" t="n">
         <v>0</v>
       </c>
-      <c r="R1804" t="inlineStr"/>
+      <c r="R1804" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1805">
       <c r="A1805" s="2" t="n">
@@ -101545,7 +101549,9 @@
       <c r="Q1805" t="n">
         <v>0</v>
       </c>
-      <c r="R1805" t="inlineStr"/>
+      <c r="R1805" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1806">
       <c r="A1806" s="2" t="n">
@@ -101599,7 +101605,9 @@
       <c r="Q1806" t="n">
         <v>0</v>
       </c>
-      <c r="R1806" t="inlineStr"/>
+      <c r="R1806" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1807">
       <c r="A1807" s="2" t="n">
@@ -101653,7 +101661,9 @@
       <c r="Q1807" t="n">
         <v>0</v>
       </c>
-      <c r="R1807" t="inlineStr"/>
+      <c r="R1807" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1808">
       <c r="A1808" s="2" t="n">
@@ -101707,7 +101717,9 @@
       <c r="Q1808" t="n">
         <v>0</v>
       </c>
-      <c r="R1808" t="inlineStr"/>
+      <c r="R1808" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1809">
       <c r="A1809" s="2" t="n">
@@ -101761,7 +101773,9 @@
       <c r="Q1809" t="n">
         <v>0</v>
       </c>
-      <c r="R1809" t="inlineStr"/>
+      <c r="R1809" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1810">
       <c r="A1810" s="2" t="n">
@@ -101815,7 +101829,9 @@
       <c r="Q1810" t="n">
         <v>2</v>
       </c>
-      <c r="R1810" t="inlineStr"/>
+      <c r="R1810" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1811">
       <c r="A1811" s="2" t="n">
@@ -101869,7 +101885,9 @@
       <c r="Q1811" t="n">
         <v>0</v>
       </c>
-      <c r="R1811" t="inlineStr"/>
+      <c r="R1811" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1812">
       <c r="A1812" s="2" t="n">
@@ -101923,7 +101941,549 @@
       <c r="Q1812" t="n">
         <v>0</v>
       </c>
-      <c r="R1812" t="inlineStr"/>
+      <c r="R1812" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>250.25</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>272.2000122070312</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>249.75</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>260.3500061035156</v>
+      </c>
+      <c r="F1813" t="n">
+        <v>260.3500061035156</v>
+      </c>
+      <c r="G1813" t="n">
+        <v>26419</v>
+      </c>
+      <c r="H1813" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1813" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1813" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1813" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1813" t="inlineStr"/>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>265</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>266.8999938964844</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>247.3500061035156</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>250.3999938964844</v>
+      </c>
+      <c r="F1814" t="n">
+        <v>250.3999938964844</v>
+      </c>
+      <c r="G1814" t="n">
+        <v>11792</v>
+      </c>
+      <c r="H1814" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1814" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1814" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1814" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1814" t="inlineStr"/>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>250.3999938964844</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>262.8999938964844</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>250.3999938964844</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>260.5499877929688</v>
+      </c>
+      <c r="F1815" t="n">
+        <v>260.5499877929688</v>
+      </c>
+      <c r="G1815" t="n">
+        <v>20850</v>
+      </c>
+      <c r="H1815" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1815" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1815" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1815" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1815" t="inlineStr"/>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>260.5499877929688</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>266.8999938964844</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>255.1000061035156</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>263.8500061035156</v>
+      </c>
+      <c r="F1816" t="n">
+        <v>263.8500061035156</v>
+      </c>
+      <c r="G1816" t="n">
+        <v>15205</v>
+      </c>
+      <c r="H1816" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1816" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1816" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1816" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1816" t="inlineStr"/>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>268.9500122070312</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>275.9500122070312</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>260</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>274.9500122070312</v>
+      </c>
+      <c r="F1817" t="n">
+        <v>274.9500122070312</v>
+      </c>
+      <c r="G1817" t="n">
+        <v>15724</v>
+      </c>
+      <c r="H1817" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1817" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1817" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1817" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1817" t="inlineStr"/>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>285</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>288.6499938964844</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>276</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>288.6499938964844</v>
+      </c>
+      <c r="F1818" t="n">
+        <v>288.6499938964844</v>
+      </c>
+      <c r="G1818" t="n">
+        <v>39296</v>
+      </c>
+      <c r="H1818" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1818" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1818" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1818" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1818" t="inlineStr"/>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>288.6499938964844</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>303.0499877929688</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>288</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>295.7000122070312</v>
+      </c>
+      <c r="F1819" t="n">
+        <v>295.7000122070312</v>
+      </c>
+      <c r="G1819" t="n">
+        <v>48439</v>
+      </c>
+      <c r="H1819" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1819" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1819" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1819" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1819" t="inlineStr"/>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>301.6499938964844</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>302</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>281</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>294.0499877929688</v>
+      </c>
+      <c r="F1820" t="n">
+        <v>294.0499877929688</v>
+      </c>
+      <c r="G1820" t="n">
+        <v>13791</v>
+      </c>
+      <c r="H1820" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1820" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1820" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1820" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1820" t="inlineStr"/>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>288.2000122070312</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>288.2000122070312</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>288.2000122070312</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>288.2000122070312</v>
+      </c>
+      <c r="F1821" t="n">
+        <v>288.2000122070312</v>
+      </c>
+      <c r="G1821" t="n">
+        <v>1433</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1821" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1821" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1821" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1821" t="inlineStr"/>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>282.4500122070312</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>282.4500122070312</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>282.4500122070312</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>282.4500122070312</v>
+      </c>
+      <c r="F1822" t="n">
+        <v>282.4500122070312</v>
+      </c>
+      <c r="G1822" t="n">
+        <v>2289</v>
+      </c>
+      <c r="H1822" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1822" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1822" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1822" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1822" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CROWN.NS.xlsx
+++ b/stock_historical_data/1d/CROWN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1822"/>
+  <dimension ref="A1:R1827"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6291,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="Q104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R104" t="n">
         <v>0</v>
@@ -6347,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="Q105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R105" t="n">
         <v>0</v>
@@ -6403,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R106" t="n">
         <v>0</v>
@@ -101997,7 +101997,9 @@
       <c r="Q1813" t="n">
         <v>0</v>
       </c>
-      <c r="R1813" t="inlineStr"/>
+      <c r="R1813" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1814">
       <c r="A1814" s="2" t="n">
@@ -102043,7 +102045,7 @@
         <v>30</v>
       </c>
       <c r="O1814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1814" t="n">
         <v>0</v>
@@ -102051,7 +102053,9 @@
       <c r="Q1814" t="n">
         <v>0</v>
       </c>
-      <c r="R1814" t="inlineStr"/>
+      <c r="R1814" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1815">
       <c r="A1815" s="2" t="n">
@@ -102105,7 +102109,9 @@
       <c r="Q1815" t="n">
         <v>0</v>
       </c>
-      <c r="R1815" t="inlineStr"/>
+      <c r="R1815" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1816">
       <c r="A1816" s="2" t="n">
@@ -102159,7 +102165,9 @@
       <c r="Q1816" t="n">
         <v>0</v>
       </c>
-      <c r="R1816" t="inlineStr"/>
+      <c r="R1816" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1817">
       <c r="A1817" s="2" t="n">
@@ -102213,7 +102221,9 @@
       <c r="Q1817" t="n">
         <v>0</v>
       </c>
-      <c r="R1817" t="inlineStr"/>
+      <c r="R1817" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1818">
       <c r="A1818" s="2" t="n">
@@ -102267,7 +102277,9 @@
       <c r="Q1818" t="n">
         <v>0</v>
       </c>
-      <c r="R1818" t="inlineStr"/>
+      <c r="R1818" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1819">
       <c r="A1819" s="2" t="n">
@@ -102321,7 +102333,9 @@
       <c r="Q1819" t="n">
         <v>0</v>
       </c>
-      <c r="R1819" t="inlineStr"/>
+      <c r="R1819" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1820">
       <c r="A1820" s="2" t="n">
@@ -102375,7 +102389,9 @@
       <c r="Q1820" t="n">
         <v>0</v>
       </c>
-      <c r="R1820" t="inlineStr"/>
+      <c r="R1820" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1821">
       <c r="A1821" s="2" t="n">
@@ -102429,7 +102445,9 @@
       <c r="Q1821" t="n">
         <v>0</v>
       </c>
-      <c r="R1821" t="inlineStr"/>
+      <c r="R1821" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1822">
       <c r="A1822" s="2" t="n">
@@ -102483,7 +102501,279 @@
       <c r="Q1822" t="n">
         <v>0</v>
       </c>
-      <c r="R1822" t="inlineStr"/>
+      <c r="R1822" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>276.7999877929688</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>276.7999877929688</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>276.7999877929688</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>276.7999877929688</v>
+      </c>
+      <c r="F1823" t="n">
+        <v>276.7999877929688</v>
+      </c>
+      <c r="G1823" t="n">
+        <v>6970</v>
+      </c>
+      <c r="H1823" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1823" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1823" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1823" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1823" t="inlineStr"/>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>271.2999877929688</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>271.2999877929688</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>271.2999877929688</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>271.2999877929688</v>
+      </c>
+      <c r="F1824" t="n">
+        <v>271.2999877929688</v>
+      </c>
+      <c r="G1824" t="n">
+        <v>5660</v>
+      </c>
+      <c r="H1824" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1824" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1824" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1824" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1824" t="inlineStr"/>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>269.7999877929688</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>276.7000122070312</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>269.7999877929688</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>269.7999877929688</v>
+      </c>
+      <c r="F1825" t="n">
+        <v>269.7999877929688</v>
+      </c>
+      <c r="G1825" t="n">
+        <v>16679</v>
+      </c>
+      <c r="H1825" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1825" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1825" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1825" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1825" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1825" t="inlineStr"/>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>275</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>275.1499938964844</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>270</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>275</v>
+      </c>
+      <c r="F1826" t="n">
+        <v>275</v>
+      </c>
+      <c r="G1826" t="n">
+        <v>14043</v>
+      </c>
+      <c r="H1826" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1826" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1826" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1826" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1826" t="inlineStr"/>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>280.5</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>280.5</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>280</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>280</v>
+      </c>
+      <c r="F1827" t="n">
+        <v>280</v>
+      </c>
+      <c r="G1827" t="n">
+        <v>24368</v>
+      </c>
+      <c r="H1827" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1827" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1827" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1827" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1827" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CROWN.NS.xlsx
+++ b/stock_historical_data/1d/CROWN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1827"/>
+  <dimension ref="A1:R1831"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102325,7 +102325,7 @@
         <v>31</v>
       </c>
       <c r="O1819" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1819" t="n">
         <v>0</v>
@@ -102557,7 +102557,9 @@
       <c r="Q1823" t="n">
         <v>0</v>
       </c>
-      <c r="R1823" t="inlineStr"/>
+      <c r="R1823" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1824">
       <c r="A1824" s="2" t="n">
@@ -102611,7 +102613,9 @@
       <c r="Q1824" t="n">
         <v>0</v>
       </c>
-      <c r="R1824" t="inlineStr"/>
+      <c r="R1824" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1825">
       <c r="A1825" s="2" t="n">
@@ -102665,7 +102669,9 @@
       <c r="Q1825" t="n">
         <v>1</v>
       </c>
-      <c r="R1825" t="inlineStr"/>
+      <c r="R1825" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1826">
       <c r="A1826" s="2" t="n">
@@ -102719,7 +102725,9 @@
       <c r="Q1826" t="n">
         <v>0</v>
       </c>
-      <c r="R1826" t="inlineStr"/>
+      <c r="R1826" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1827">
       <c r="A1827" s="2" t="n">
@@ -102773,7 +102781,225 @@
       <c r="Q1827" t="n">
         <v>0</v>
       </c>
-      <c r="R1827" t="inlineStr"/>
+      <c r="R1827" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>285.6000061035156</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>285.6000061035156</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>285.5499877929688</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>285.6000061035156</v>
+      </c>
+      <c r="F1828" t="n">
+        <v>285.6000061035156</v>
+      </c>
+      <c r="G1828" t="n">
+        <v>4014</v>
+      </c>
+      <c r="H1828" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1828" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1828" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1828" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1828" t="inlineStr"/>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1829" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="F1829" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="G1829" t="n">
+        <v>18000</v>
+      </c>
+      <c r="H1829" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1829" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1829" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1829" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1829" t="inlineStr"/>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1830" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="F1830" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="G1830" t="n">
+        <v>8378</v>
+      </c>
+      <c r="H1830" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1830" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1830" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1830" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1830" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1830" t="inlineStr"/>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1831" t="n">
+        <v>279.7999877929688</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>279.7999877929688</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>279.7999877929688</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>279.7999877929688</v>
+      </c>
+      <c r="F1831" t="n">
+        <v>279.7999877929688</v>
+      </c>
+      <c r="G1831" t="n">
+        <v>2111</v>
+      </c>
+      <c r="H1831" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1831" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1831" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1831" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1831" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CROWN.NS.xlsx
+++ b/stock_historical_data/1d/CROWN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1831"/>
+  <dimension ref="A1:R1836"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102837,7 +102837,9 @@
       <c r="Q1828" t="n">
         <v>0</v>
       </c>
-      <c r="R1828" t="inlineStr"/>
+      <c r="R1828" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1829">
       <c r="A1829" s="2" t="n">
@@ -102891,7 +102893,9 @@
       <c r="Q1829" t="n">
         <v>0</v>
       </c>
-      <c r="R1829" t="inlineStr"/>
+      <c r="R1829" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1830">
       <c r="A1830" s="2" t="n">
@@ -102945,7 +102949,9 @@
       <c r="Q1830" t="n">
         <v>2</v>
       </c>
-      <c r="R1830" t="inlineStr"/>
+      <c r="R1830" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1831">
       <c r="A1831" s="2" t="n">
@@ -102999,7 +103005,279 @@
       <c r="Q1831" t="n">
         <v>0</v>
       </c>
-      <c r="R1831" t="inlineStr"/>
+      <c r="R1831" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1832" t="n">
+        <v>274.2000122070312</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>274.2000122070312</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>274.2000122070312</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>274.2000122070312</v>
+      </c>
+      <c r="F1832" t="n">
+        <v>274.2000122070312</v>
+      </c>
+      <c r="G1832" t="n">
+        <v>1865</v>
+      </c>
+      <c r="H1832" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1832" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1832" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1832" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1832" t="inlineStr"/>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1833" t="n">
+        <v>268.75</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>268.75</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>268.75</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>268.75</v>
+      </c>
+      <c r="F1833" t="n">
+        <v>268.75</v>
+      </c>
+      <c r="G1833" t="n">
+        <v>10059</v>
+      </c>
+      <c r="H1833" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1833" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1833" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1833" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1833" t="inlineStr"/>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1834" t="n">
+        <v>263.3999938964844</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>263.3999938964844</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>263.3999938964844</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>263.3999938964844</v>
+      </c>
+      <c r="F1834" t="n">
+        <v>263.3999938964844</v>
+      </c>
+      <c r="G1834" t="n">
+        <v>12868</v>
+      </c>
+      <c r="H1834" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1834" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1834" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1834" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1834" t="inlineStr"/>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1835" t="n">
+        <v>258.1499938964844</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>259</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>258.1499938964844</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>258.1499938964844</v>
+      </c>
+      <c r="F1835" t="n">
+        <v>258.1499938964844</v>
+      </c>
+      <c r="G1835" t="n">
+        <v>12273</v>
+      </c>
+      <c r="H1835" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1835" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1835" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1835" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1835" t="inlineStr"/>
+    </row>
+    <row r="1836">
+      <c r="A1836" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1836" t="n">
+        <v>253</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>253</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>253</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>253</v>
+      </c>
+      <c r="F1836" t="n">
+        <v>253</v>
+      </c>
+      <c r="G1836" t="n">
+        <v>18452</v>
+      </c>
+      <c r="H1836" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1836" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1836" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1836" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1836" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CROWN.NS.xlsx
+++ b/stock_historical_data/1d/CROWN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1836"/>
+  <dimension ref="A1:R1841"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103061,7 +103061,9 @@
       <c r="Q1832" t="n">
         <v>0</v>
       </c>
-      <c r="R1832" t="inlineStr"/>
+      <c r="R1832" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1833">
       <c r="A1833" s="2" t="n">
@@ -103115,7 +103117,9 @@
       <c r="Q1833" t="n">
         <v>0</v>
       </c>
-      <c r="R1833" t="inlineStr"/>
+      <c r="R1833" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1834">
       <c r="A1834" s="2" t="n">
@@ -103169,7 +103173,9 @@
       <c r="Q1834" t="n">
         <v>0</v>
       </c>
-      <c r="R1834" t="inlineStr"/>
+      <c r="R1834" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1835">
       <c r="A1835" s="2" t="n">
@@ -103223,7 +103229,9 @@
       <c r="Q1835" t="n">
         <v>0</v>
       </c>
-      <c r="R1835" t="inlineStr"/>
+      <c r="R1835" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1836">
       <c r="A1836" s="2" t="n">
@@ -103277,7 +103285,279 @@
       <c r="Q1836" t="n">
         <v>0</v>
       </c>
-      <c r="R1836" t="inlineStr"/>
+      <c r="R1836" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1837" t="n">
+        <v>258.0499877929688</v>
+      </c>
+      <c r="C1837" t="n">
+        <v>258.0499877929688</v>
+      </c>
+      <c r="D1837" t="n">
+        <v>249.0500030517578</v>
+      </c>
+      <c r="E1837" t="n">
+        <v>258.0499877929688</v>
+      </c>
+      <c r="F1837" t="n">
+        <v>258.0499877929688</v>
+      </c>
+      <c r="G1837" t="n">
+        <v>16178</v>
+      </c>
+      <c r="H1837" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1837" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1837" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1837" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1837" t="inlineStr"/>
+    </row>
+    <row r="1838">
+      <c r="A1838" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1838" t="n">
+        <v>263.2000122070312</v>
+      </c>
+      <c r="C1838" t="n">
+        <v>263.2000122070312</v>
+      </c>
+      <c r="D1838" t="n">
+        <v>263.2000122070312</v>
+      </c>
+      <c r="E1838" t="n">
+        <v>263.2000122070312</v>
+      </c>
+      <c r="F1838" t="n">
+        <v>263.2000122070312</v>
+      </c>
+      <c r="G1838" t="n">
+        <v>14460</v>
+      </c>
+      <c r="H1838" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1838" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1838" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1838" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1838" t="inlineStr"/>
+    </row>
+    <row r="1839">
+      <c r="A1839" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1839" t="n">
+        <v>268.4500122070312</v>
+      </c>
+      <c r="C1839" t="n">
+        <v>268.4500122070312</v>
+      </c>
+      <c r="D1839" t="n">
+        <v>268.4500122070312</v>
+      </c>
+      <c r="E1839" t="n">
+        <v>268.4500122070312</v>
+      </c>
+      <c r="F1839" t="n">
+        <v>268.4500122070312</v>
+      </c>
+      <c r="G1839" t="n">
+        <v>18373</v>
+      </c>
+      <c r="H1839" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1839" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1839" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1839" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1839" t="inlineStr"/>
+    </row>
+    <row r="1840">
+      <c r="A1840" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1840" t="n">
+        <v>263.1000061035156</v>
+      </c>
+      <c r="C1840" t="n">
+        <v>268.4500122070312</v>
+      </c>
+      <c r="D1840" t="n">
+        <v>263.1000061035156</v>
+      </c>
+      <c r="E1840" t="n">
+        <v>263.1000061035156</v>
+      </c>
+      <c r="F1840" t="n">
+        <v>263.1000061035156</v>
+      </c>
+      <c r="G1840" t="n">
+        <v>10910</v>
+      </c>
+      <c r="H1840" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1840" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1840" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1840" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1840" t="inlineStr"/>
+    </row>
+    <row r="1841">
+      <c r="A1841" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1841" t="n">
+        <v>263</v>
+      </c>
+      <c r="C1841" t="n">
+        <v>263</v>
+      </c>
+      <c r="D1841" t="n">
+        <v>257.8500061035156</v>
+      </c>
+      <c r="E1841" t="n">
+        <v>263</v>
+      </c>
+      <c r="F1841" t="n">
+        <v>263</v>
+      </c>
+      <c r="G1841" t="n">
+        <v>9433</v>
+      </c>
+      <c r="H1841" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1841" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1841" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1841" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1841" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CROWN.NS.xlsx
+++ b/stock_historical_data/1d/CROWN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1841"/>
+  <dimension ref="A1:R1846"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103341,7 +103341,9 @@
       <c r="Q1837" t="n">
         <v>0</v>
       </c>
-      <c r="R1837" t="inlineStr"/>
+      <c r="R1837" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1838">
       <c r="A1838" s="2" t="n">
@@ -103395,7 +103397,9 @@
       <c r="Q1838" t="n">
         <v>0</v>
       </c>
-      <c r="R1838" t="inlineStr"/>
+      <c r="R1838" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1839">
       <c r="A1839" s="2" t="n">
@@ -103449,7 +103453,9 @@
       <c r="Q1839" t="n">
         <v>0</v>
       </c>
-      <c r="R1839" t="inlineStr"/>
+      <c r="R1839" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1840">
       <c r="A1840" s="2" t="n">
@@ -103503,7 +103509,9 @@
       <c r="Q1840" t="n">
         <v>0</v>
       </c>
-      <c r="R1840" t="inlineStr"/>
+      <c r="R1840" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1841">
       <c r="A1841" s="2" t="n">
@@ -103557,7 +103565,279 @@
       <c r="Q1841" t="n">
         <v>0</v>
       </c>
-      <c r="R1841" t="inlineStr"/>
+      <c r="R1841" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1842" t="n">
+        <v>268.25</v>
+      </c>
+      <c r="C1842" t="n">
+        <v>268.25</v>
+      </c>
+      <c r="D1842" t="n">
+        <v>268.25</v>
+      </c>
+      <c r="E1842" t="n">
+        <v>268.25</v>
+      </c>
+      <c r="F1842" t="n">
+        <v>268.25</v>
+      </c>
+      <c r="G1842" t="n">
+        <v>14866</v>
+      </c>
+      <c r="H1842" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1842" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1842" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1842" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1842" t="inlineStr"/>
+    </row>
+    <row r="1843">
+      <c r="A1843" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1843" t="n">
+        <v>273.6000061035156</v>
+      </c>
+      <c r="C1843" t="n">
+        <v>273.6000061035156</v>
+      </c>
+      <c r="D1843" t="n">
+        <v>273.6000061035156</v>
+      </c>
+      <c r="E1843" t="n">
+        <v>273.6000061035156</v>
+      </c>
+      <c r="F1843" t="n">
+        <v>273.6000061035156</v>
+      </c>
+      <c r="G1843" t="n">
+        <v>6003</v>
+      </c>
+      <c r="H1843" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1843" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1843" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1843" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1843" t="inlineStr"/>
+    </row>
+    <row r="1844">
+      <c r="A1844" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1844" t="n">
+        <v>268.1499938964844</v>
+      </c>
+      <c r="C1844" t="n">
+        <v>279.0499877929688</v>
+      </c>
+      <c r="D1844" t="n">
+        <v>268.1499938964844</v>
+      </c>
+      <c r="E1844" t="n">
+        <v>268.1499938964844</v>
+      </c>
+      <c r="F1844" t="n">
+        <v>268.1499938964844</v>
+      </c>
+      <c r="G1844" t="n">
+        <v>24495</v>
+      </c>
+      <c r="H1844" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1844" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1844" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1844" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1844" t="inlineStr"/>
+    </row>
+    <row r="1845">
+      <c r="A1845" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1845" t="n">
+        <v>273.5</v>
+      </c>
+      <c r="C1845" t="n">
+        <v>273.5</v>
+      </c>
+      <c r="D1845" t="n">
+        <v>262.7999877929688</v>
+      </c>
+      <c r="E1845" t="n">
+        <v>273.5</v>
+      </c>
+      <c r="F1845" t="n">
+        <v>273.5</v>
+      </c>
+      <c r="G1845" t="n">
+        <v>34436</v>
+      </c>
+      <c r="H1845" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1845" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1845" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1845" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1845" t="inlineStr"/>
+    </row>
+    <row r="1846">
+      <c r="A1846" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1846" t="n">
+        <v>278.8999938964844</v>
+      </c>
+      <c r="C1846" t="n">
+        <v>278.8999938964844</v>
+      </c>
+      <c r="D1846" t="n">
+        <v>268.0499877929688</v>
+      </c>
+      <c r="E1846" t="n">
+        <v>268.0499877929688</v>
+      </c>
+      <c r="F1846" t="n">
+        <v>268.0499877929688</v>
+      </c>
+      <c r="G1846" t="n">
+        <v>11043</v>
+      </c>
+      <c r="H1846" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1846" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1846" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1846" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1846" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/CROWN.NS.xlsx
+++ b/stock_historical_data/1d/CROWN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1846"/>
+  <dimension ref="A1:R1851"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103333,7 +103333,7 @@
         <v>35</v>
       </c>
       <c r="O1837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1837" t="n">
         <v>0</v>
@@ -103621,7 +103621,9 @@
       <c r="Q1842" t="n">
         <v>0</v>
       </c>
-      <c r="R1842" t="inlineStr"/>
+      <c r="R1842" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1843">
       <c r="A1843" s="2" t="n">
@@ -103675,7 +103677,9 @@
       <c r="Q1843" t="n">
         <v>0</v>
       </c>
-      <c r="R1843" t="inlineStr"/>
+      <c r="R1843" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1844">
       <c r="A1844" s="2" t="n">
@@ -103729,7 +103733,9 @@
       <c r="Q1844" t="n">
         <v>0</v>
       </c>
-      <c r="R1844" t="inlineStr"/>
+      <c r="R1844" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1845">
       <c r="A1845" s="2" t="n">
@@ -103783,7 +103789,9 @@
       <c r="Q1845" t="n">
         <v>0</v>
       </c>
-      <c r="R1845" t="inlineStr"/>
+      <c r="R1845" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1846">
       <c r="A1846" s="2" t="n">
@@ -103837,7 +103845,279 @@
       <c r="Q1846" t="n">
         <v>0</v>
       </c>
-      <c r="R1846" t="inlineStr"/>
+      <c r="R1846" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1847" t="n">
+        <v>281.4500122070312</v>
+      </c>
+      <c r="C1847" t="n">
+        <v>281.4500122070312</v>
+      </c>
+      <c r="D1847" t="n">
+        <v>254.6499938964844</v>
+      </c>
+      <c r="E1847" t="n">
+        <v>260.4500122070312</v>
+      </c>
+      <c r="F1847" t="n">
+        <v>260.4500122070312</v>
+      </c>
+      <c r="G1847" t="n">
+        <v>29764</v>
+      </c>
+      <c r="H1847" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1847" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1847" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1847" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1847" t="inlineStr"/>
+    </row>
+    <row r="1848">
+      <c r="A1848" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1848" t="n">
+        <v>260.3500061035156</v>
+      </c>
+      <c r="C1848" t="n">
+        <v>260.3500061035156</v>
+      </c>
+      <c r="D1848" t="n">
+        <v>247.4499969482422</v>
+      </c>
+      <c r="E1848" t="n">
+        <v>247.4499969482422</v>
+      </c>
+      <c r="F1848" t="n">
+        <v>247.4499969482422</v>
+      </c>
+      <c r="G1848" t="n">
+        <v>44377</v>
+      </c>
+      <c r="H1848" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1848" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1848" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1848" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1848" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1848" t="inlineStr"/>
+    </row>
+    <row r="1849">
+      <c r="A1849" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1849" t="n">
+        <v>243.9499969482422</v>
+      </c>
+      <c r="C1849" t="n">
+        <v>248</v>
+      </c>
+      <c r="D1849" t="n">
+        <v>235.1000061035156</v>
+      </c>
+      <c r="E1849" t="n">
+        <v>242.8000030517578</v>
+      </c>
+      <c r="F1849" t="n">
+        <v>242.8000030517578</v>
+      </c>
+      <c r="G1849" t="n">
+        <v>71548</v>
+      </c>
+      <c r="H1849" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1849" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1849" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1849" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1849" t="inlineStr"/>
+    </row>
+    <row r="1850">
+      <c r="A1850" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1850" t="n">
+        <v>236.1999969482422</v>
+      </c>
+      <c r="C1850" t="n">
+        <v>242.6999969482422</v>
+      </c>
+      <c r="D1850" t="n">
+        <v>230.6999969482422</v>
+      </c>
+      <c r="E1850" t="n">
+        <v>233.5</v>
+      </c>
+      <c r="F1850" t="n">
+        <v>233.5</v>
+      </c>
+      <c r="G1850" t="n">
+        <v>40541</v>
+      </c>
+      <c r="H1850" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1850" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1850" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1850" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1850" t="inlineStr"/>
+    </row>
+    <row r="1851">
+      <c r="A1851" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1851" t="n">
+        <v>221.8500061035156</v>
+      </c>
+      <c r="C1851" t="n">
+        <v>245.1499938964844</v>
+      </c>
+      <c r="D1851" t="n">
+        <v>221.8500061035156</v>
+      </c>
+      <c r="E1851" t="n">
+        <v>245.1499938964844</v>
+      </c>
+      <c r="F1851" t="n">
+        <v>245.1499938964844</v>
+      </c>
+      <c r="G1851" t="n">
+        <v>58398</v>
+      </c>
+      <c r="H1851" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1851" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1851" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1851" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1851" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
